--- a/toys.xlsx
+++ b/toys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12588" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,11 @@
     <sheet name="final" sheetId="7" r:id="rId6"/>
     <sheet name="level2Cards" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">final!$C$22:$AC$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">level2Cards!$A$1:$U$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">level2Cards!$A$1:$S$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$E$1:$AL$71</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="87">
   <si>
     <t>1 World Trade</t>
   </si>
@@ -289,6 +290,9 @@
   </si>
   <si>
     <t>yelllow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -562,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,7 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -924,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,10 +941,10 @@
       <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1601,18 +1604,18 @@
       <selection activeCell="E1" sqref="E1:AL71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="8" max="38" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="8" max="38" width="3.6640625" customWidth="1"/>
     <col min="39" max="39" width="173" customWidth="1"/>
-    <col min="40" max="50" width="3.7109375" customWidth="1"/>
-    <col min="52" max="54" width="3.7109375" customWidth="1"/>
-    <col min="56" max="58" width="3.7109375" customWidth="1"/>
-    <col min="60" max="62" width="3.7109375" customWidth="1"/>
+    <col min="40" max="50" width="3.6640625" customWidth="1"/>
+    <col min="52" max="54" width="3.6640625" customWidth="1"/>
+    <col min="56" max="58" width="3.6640625" customWidth="1"/>
+    <col min="60" max="62" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>53</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>5</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="AS13" s="10"/>
       <c r="AT13" s="10"/>
     </row>
-    <row r="14" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>5</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>37</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>37</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>37</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>38</v>
       </c>
@@ -3003,11 +3006,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="AR19" s="4"/>
       <c r="AT19" s="4"/>
     </row>
-    <row r="20" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>5</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>37</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>37</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>37</v>
       </c>
@@ -3882,7 +3885,7 @@
       </c>
     </row>
     <row r="31" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>4</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="H33" s="2">
         <v>1</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="H34" s="20"/>
       <c r="I34" s="21"/>
       <c r="J34" s="23"/>
@@ -4170,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="AV35">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4220,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="AN36">
         <v>2</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:62" ht="15" x14ac:dyDescent="0.25">
       <c r="AR37" s="8"/>
       <c r="AS37" s="10"/>
       <c r="AT37" s="4"/>
@@ -4377,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H39" s="19"/>
       <c r="I39" s="25"/>
       <c r="J39" s="2">
@@ -4473,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H40" s="20"/>
       <c r="I40" s="21"/>
       <c r="J40" s="2">
@@ -4562,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AN41">
         <v>4</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AV42">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -4680,8 +4683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="5:62" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>4</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:62" x14ac:dyDescent="0.3">
       <c r="H45" s="19"/>
       <c r="I45" s="25"/>
       <c r="J45" s="2">
@@ -4873,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:62" x14ac:dyDescent="0.3">
       <c r="H46" s="20"/>
       <c r="I46" s="2">
         <v>1</v>
@@ -4969,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:62" x14ac:dyDescent="0.3">
       <c r="AV47">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -5019,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:62" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>44</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:62" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>3</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:62" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>39</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:62" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>46</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:62" x14ac:dyDescent="0.3">
       <c r="AV53">
         <f>SUM(AV3:AV52)</f>
         <v>6</v>
@@ -5293,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:62" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>3</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:62" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>48</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:62" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>46</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:62" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>3</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:62" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>49</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="5:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:62" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>46</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:38" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>3</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>47</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:38" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>46</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:38" x14ac:dyDescent="0.3">
       <c r="H69" s="26">
         <f>SUM(H1:H68)</f>
         <v>14</v>
@@ -5618,7 +5621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:38" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>0</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:38" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>8</v>
       </c>
@@ -5667,27 +5670,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F73">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F74">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F75">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="5:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:38" x14ac:dyDescent="0.3">
       <c r="F76">
         <f>SUM(F72:F75)</f>
         <v>52</v>
@@ -5707,10 +5710,10 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="23" width="3.7109375" customWidth="1"/>
-    <col min="26" max="29" width="3.7109375" customWidth="1"/>
+    <col min="1" max="23" width="3.6640625" customWidth="1"/>
+    <col min="26" max="29" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -7547,16 +7550,16 @@
       <selection activeCell="J1" sqref="J1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="22" width="3.7109375" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" customWidth="1"/>
-    <col min="24" max="35" width="3.7109375" customWidth="1"/>
+    <col min="19" max="22" width="3.6640625" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" customWidth="1"/>
+    <col min="24" max="35" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
@@ -8419,18 +8422,18 @@
       <selection activeCell="AP33" sqref="AP33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="4" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="3.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="37" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="40" width="3.7109375" customWidth="1"/>
-    <col min="42" max="64" width="3.7109375" customWidth="1"/>
-    <col min="66" max="69" width="3.7109375" customWidth="1"/>
+    <col min="7" max="8" width="3.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="34" width="3.6640625" customWidth="1"/>
+    <col min="35" max="37" width="3.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="40" width="3.6640625" customWidth="1"/>
+    <col min="42" max="64" width="3.6640625" customWidth="1"/>
+    <col min="66" max="69" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.25">
@@ -13158,17 +13161,17 @@
   <dimension ref="A1:BD69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="36" width="3.7109375" customWidth="1"/>
-    <col min="39" max="49" width="3.7109375" customWidth="1"/>
+    <col min="3" max="36" width="3.6640625" customWidth="1"/>
+    <col min="39" max="49" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>57</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="19"/>
       <c r="E3" s="22"/>
       <c r="H3" s="19"/>
@@ -13276,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="23"/>
@@ -13318,7 +13321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -13338,7 +13341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -13383,7 +13386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
       <c r="E8" s="10">
         <v>4</v>
@@ -13423,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="23"/>
@@ -13465,7 +13468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -13485,7 +13488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13530,7 +13533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="19"/>
       <c r="E13" s="22"/>
       <c r="H13" s="34">
@@ -13569,7 +13572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="44">
         <v>1</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>57</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="17"/>
       <c r="D17" s="24"/>
       <c r="E17" s="18"/>
@@ -13672,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="31">
         <v>1</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="61">
         <v>4</v>
       </c>
@@ -13756,7 +13759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="AM20" s="4">
         <v>1</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="AJ21">
         <v>5</v>
       </c>
@@ -13810,7 +13813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -13858,7 +13861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>1</v>
       </c>
@@ -13913,15 +13916,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="10">
         <v>4</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E24" s="22"/>
       <c r="H24" s="19"/>
       <c r="I24" s="25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J24" s="9">
         <v>3</v>
@@ -13971,7 +13976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="9">
         <v>3</v>
       </c>
@@ -13995,7 +14000,6 @@
       <c r="S25" s="9">
         <v>3</v>
       </c>
-      <c r="T25" s="23"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="10">
         <v>4</v>
@@ -14020,7 +14024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="AM26" s="37">
         <v>2</v>
       </c>
@@ -14047,7 +14051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>54</v>
       </c>
@@ -14089,7 +14093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>2</v>
       </c>
@@ -14140,11 +14144,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="31">
         <v>1</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E29" s="22"/>
       <c r="H29" s="40">
         <v>1</v>
@@ -14200,7 +14206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="23"/>
@@ -14251,13 +14257,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="AW31">
         <f>SUM(AW20:AW30)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:51" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -14310,7 +14316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="17"/>
       <c r="D33" s="24"/>
       <c r="E33" s="54">
@@ -14351,9 +14357,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="19"/>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="31">
         <v>1</v>
       </c>
@@ -14369,9 +14377,6 @@
         <v>80</v>
       </c>
       <c r="O34" s="22"/>
-      <c r="R34" s="31">
-        <v>1</v>
-      </c>
       <c r="S34" s="25" t="s">
         <v>80</v>
       </c>
@@ -14389,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="56">
@@ -14409,7 +14414,9 @@
         <v>3</v>
       </c>
       <c r="O35" s="23"/>
-      <c r="R35" s="20"/>
+      <c r="R35" s="31">
+        <v>1</v>
+      </c>
       <c r="S35" s="9">
         <v>3</v>
       </c>
@@ -14442,7 +14449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="AN36" s="8">
         <v>2</v>
       </c>
@@ -14453,7 +14460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>54</v>
       </c>
@@ -14476,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="17"/>
       <c r="D38" s="24"/>
       <c r="E38" s="18"/>
@@ -14492,9 +14499,6 @@
       <c r="O38" s="38">
         <v>3</v>
       </c>
-      <c r="R38" s="52">
-        <v>4</v>
-      </c>
       <c r="S38" s="37">
         <v>2</v>
       </c>
@@ -14535,9 +14539,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="19"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E39" s="54">
         <v>2</v>
       </c>
@@ -14582,7 +14588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="20"/>
       <c r="D40" s="55">
         <v>1</v>
@@ -14600,7 +14606,9 @@
       </c>
       <c r="N40" s="21"/>
       <c r="O40" s="23"/>
-      <c r="R40" s="20"/>
+      <c r="R40" s="52">
+        <v>4</v>
+      </c>
       <c r="S40" s="55">
         <v>1</v>
       </c>
@@ -14608,7 +14616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AM41" s="9">
         <v>3</v>
       </c>
@@ -14637,7 +14645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AN42" s="8">
         <v>2</v>
       </c>
@@ -14648,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>44</v>
       </c>
@@ -14659,7 +14667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C44" s="17"/>
       <c r="D44" s="24"/>
       <c r="E44" s="51">
@@ -14705,7 +14713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C45" s="19"/>
       <c r="E45" s="33">
         <v>2</v>
@@ -14735,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="57">
@@ -14754,7 +14762,7 @@
       <c r="N46" s="21"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:49" x14ac:dyDescent="0.3">
       <c r="AM47" s="9">
         <v>3</v>
       </c>
@@ -14783,7 +14791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -14803,7 +14811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C49" s="17"/>
       <c r="D49" s="24"/>
       <c r="E49" s="18"/>
@@ -14823,7 +14831,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C50" s="19"/>
       <c r="E50" s="54">
         <v>2</v>
@@ -14848,7 +14856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C51" s="20"/>
       <c r="D51" s="55">
         <v>1</v>
@@ -14880,7 +14888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:56" x14ac:dyDescent="0.3">
       <c r="AM52" s="8">
         <v>2</v>
       </c>
@@ -14895,7 +14903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -14919,7 +14927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>1</v>
       </c>
@@ -14951,7 +14959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C55" s="8">
         <v>2</v>
       </c>
@@ -14980,7 +14988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C56" s="10">
         <v>4</v>
       </c>
@@ -14999,7 +15007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:56" x14ac:dyDescent="0.3">
       <c r="AM57" s="4">
         <v>1</v>
       </c>
@@ -15010,7 +15018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -15036,7 +15044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C59" s="40">
         <v>1</v>
       </c>
@@ -15073,7 +15081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C60" s="41">
         <v>4</v>
       </c>
@@ -15103,7 +15111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
       <c r="E61" s="23"/>
@@ -15146,7 +15154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:56" x14ac:dyDescent="0.3">
       <c r="AM62" s="9">
         <v>3</v>
       </c>
@@ -15173,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:56" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>44</v>
       </c>
@@ -15204,7 +15212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:56" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:56" x14ac:dyDescent="0.3">
       <c r="AZ64">
         <v>4</v>
       </c>
@@ -15222,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="39:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="39:42" x14ac:dyDescent="0.3">
       <c r="AM65" s="4">
         <v>1</v>
       </c>
@@ -15230,7 +15238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="39:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="39:42" x14ac:dyDescent="0.3">
       <c r="AM66" s="8">
         <v>2</v>
       </c>
@@ -15238,7 +15246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="39:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="39:42" x14ac:dyDescent="0.3">
       <c r="AM67" s="9">
         <v>3</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="39:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="39:42" x14ac:dyDescent="0.3">
       <c r="AM68" s="10">
         <v>4</v>
       </c>
@@ -15254,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="39:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="39:42" x14ac:dyDescent="0.3">
       <c r="AP69">
         <f>SUM(AP65:AP68)</f>
         <v>10</v>
@@ -15268,20 +15276,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB42"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="3.7109375" customWidth="1"/>
-    <col min="20" max="22" width="3.7109375" customWidth="1"/>
-    <col min="24" max="55" width="3.7109375" customWidth="1"/>
+    <col min="1" max="18" width="3.6640625" customWidth="1"/>
+    <col min="21" max="25" width="3.6640625" customWidth="1"/>
+    <col min="26" max="27" width="1.77734375" customWidth="1"/>
+    <col min="28" max="30" width="3.6640625" customWidth="1"/>
+    <col min="31" max="32" width="1.77734375" customWidth="1"/>
+    <col min="33" max="35" width="3.6640625" customWidth="1"/>
+    <col min="36" max="37" width="1.77734375" customWidth="1"/>
+    <col min="38" max="40" width="3.6640625" customWidth="1"/>
+    <col min="41" max="45" width="1.77734375" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" customWidth="1"/>
+    <col min="47" max="47" width="3.33203125" customWidth="1"/>
+    <col min="48" max="52" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -15294,20 +15311,20 @@
       <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="26">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="27">
-        <v>2</v>
-      </c>
-      <c r="AZ1" s="27">
-        <v>3</v>
-      </c>
-      <c r="BA1" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AU1" s="26">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="27">
+        <v>3</v>
+      </c>
+      <c r="AX1" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="24"/>
       <c r="C2" s="38">
@@ -15325,187 +15342,194 @@
       </c>
       <c r="L2" s="24"/>
       <c r="M2" s="18"/>
-      <c r="P2" s="79">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="67">
-        <v>1</v>
-      </c>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="38">
+        <v>3</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
+      </c>
       <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="e">
+      <c r="U2" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z2">
+      <c r="W2">
         <f>IF(A2=1,1,IF(A2=2,2,IF(A2=3,3,IF(A2=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="X2">
         <f>IF(B2=1,1,IF(B2=2,2,IF(B2=3,3,IF(B2=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y2">
+        <f>IF(C2=1,1,IF(C2=2,2,IF(C2=3,3,IF(C2=4,4,0))))</f>
+        <v>3</v>
+      </c>
       <c r="AB2">
-        <f>IF(C2=1,1,IF(C2=2,2,IF(C2=3,3,IF(C2=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AE2">
         <f>IF(F2=1,1,IF(F2=2,2,IF(F2=3,3,IF(F2=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AF2">
+      <c r="AC2">
         <f>IF(G2=1,1,IF(G2=2,2,IF(G2=3,3,IF(G2=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AD2">
+        <f>IF(H2=1,1,IF(H2=2,2,IF(H2=3,3,IF(H2=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG2">
-        <f>IF(H2=1,1,IF(H2=2,2,IF(H2=3,3,IF(H2=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
         <f>IF(K2=1,1,IF(K2=2,2,IF(K2=3,3,IF(K2=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AK2">
+      <c r="AH2">
         <f>IF(L2=1,1,IF(L2=2,2,IF(L2=3,3,IF(L2=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AI2">
+        <f>IF(M2=1,1,IF(M2=2,2,IF(M2=3,3,IF(M2=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AL2">
-        <f>IF(M2=1,1,IF(M2=2,2,IF(M2=3,3,IF(M2=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <f>IF(P2=1,1,IF(P2=2,2,IF(P2=3,3,IF(P2=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AP2">
-        <f>IF(Q2=1,1,IF(Q2=2,2,IF(Q2=3,3,IF(Q2=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AQ2">
         <f>IF(R2=1,1,IF(R2=2,2,IF(R2=3,3,IF(R2=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <f t="shared" ref="AX2:AX4" si="0">IF(Z2=1,1,0)+IF(AA2=1,1,0)+IF(AB2=1,1,0)+IF(AE2=1,1,0)+IF(AF2=1,1,0)+IF(AG2=1,1,0)+IF(AJ2=1,1,0)+IF(AK2=1,1,0)+IF(AL2=1,1,0)+IF(AO2=1,1,0)+IF(AP2=1,1,0)+IF(AQ2=1,1,0)+IF(AT2=1,1,0)+IF(AU2=1,1,0)+IF(AV2=1,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="AY2">
-        <f t="shared" ref="AY2:AY4" si="1">IF(Z2=2,1,0)+IF(AA2=2,1,0)+IF(AB2=2,1,0)+IF(AE2=2,1,0)+IF(AF2=2,1,0)+IF(AG2=2,1,0)+IF(AJ2=2,1,0)+IF(AK2=2,1,0)+IF(AL2=2,1,0)+IF(AO2=2,1,0)+IF(AP2=2,1,0)+IF(AQ2=2,1,0)+IF(AT2=2,1,0)+IF(AU2=2,1,0)+IF(AV2=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <f>IF(AA2=3,1,0)+IF(AB2=3,1,0)+IF(Z2=3,1,0)+IF(AF2=3,1,0)+IF(AG2=3,1,0)+IF(AE2=3,1,0)+IF(AK2=3,1,0)+IF(AL2=3,1,0)+IF(AJ2=3,1,0)+IF(AP2=3,1,0)+IF(AQ2=3,1,0)+IF(AO2=3,1,0)+IF(AU2=3,1,0)+IF(AV2=3,1,0)+IF(AT2=3,1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="BA2">
-        <f>IF(AB2=4,1,0)+IF(Z2=4,1,0)+IF(AA2=4,1,0)+IF(AG2=4,1,0)+IF(AE2=4,1,0)+IF(AF2=4,1,0)+IF(AL2=4,1,0)+IF(AJ2=4,1,0)+IF(AK2=4,1,0)+IF(AQ2=4,1,0)+IF(AO2=4,1,0)+IF(AP2=4,1,0)+IF(AV2=4,1,0)+IF(AT2=4,1,0)+IF(AU2=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <f t="shared" ref="BB2:BB4" si="2">SUM(AX2:BA2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM4" si="0">IF(Q2=1,1,IF(Q2=2,2,IF(Q2=3,3,IF(Q2=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AN2" t="e">
+        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU2" t="e">
+        <f>IF(W2=1,1,0)+IF(X2=1,1,0)+IF(Y2=1,1,0)+IF(AB2=1,1,0)+IF(AC2=1,1,0)+IF(AD2=1,1,0)+IF(AG2=1,1,0)+IF(AH2=1,1,0)+IF(AI2=1,1,0)+IF(AL2=1,1,0)+IF(AM2=1,1,0)+IF(AN2=1,1,0)+IF(AQ2=1,1,0)+IF(AR2=1,1,0)+IF(AS2=1,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV2" t="e">
+        <f>IF(W2=2,1,0)+IF(X2=2,1,0)+IF(Y2=2,1,0)+IF(AB2=2,1,0)+IF(AC2=2,1,0)+IF(AD2=2,1,0)+IF(AG2=2,1,0)+IF(AH2=2,1,0)+IF(AI2=2,1,0)+IF(AL2=2,1,0)+IF(AM2=2,1,0)+IF(AN2=2,1,0)+IF(AQ2=2,1,0)+IF(AR2=2,1,0)+IF(AS2=2,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW2" t="e">
+        <f>IF(X2=3,1,0)+IF(Y2=3,1,0)+IF(W2=3,1,0)+IF(AC2=3,1,0)+IF(AD2=3,1,0)+IF(AB2=3,1,0)+IF(AH2=3,1,0)+IF(AI2=3,1,0)+IF(AG2=3,1,0)+IF(AM2=3,1,0)+IF(AN2=3,1,0)+IF(AL2=3,1,0)+IF(AR2=3,1,0)+IF(AS2=3,1,0)+IF(AQ2=3,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX2" t="e">
+        <f>IF(Y2=4,1,0)+IF(W2=4,1,0)+IF(X2=4,1,0)+IF(AD2=4,1,0)+IF(AB2=4,1,0)+IF(AC2=4,1,0)+IF(AI2=4,1,0)+IF(AG2=4,1,0)+IF(AH2=4,1,0)+IF(AN2=4,1,0)+IF(AL2=4,1,0)+IF(AM2=4,1,0)+IF(AS2=4,1,0)+IF(AQ2=4,1,0)+IF(AR2=4,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY2" t="e">
+        <f t="shared" ref="AY2:AY4" si="1">SUM(AU2:AX2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="36">
+        <v>2</v>
+      </c>
       <c r="C3" s="48">
         <v>1</v>
       </c>
       <c r="F3" s="47">
         <v>3</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="48">
+        <v>1</v>
+      </c>
       <c r="H3" s="22"/>
       <c r="K3" s="73">
         <v>2</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="61">
+        <v>4</v>
+      </c>
       <c r="M3" s="35">
         <v>2</v>
       </c>
       <c r="P3" s="19"/>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="12">
+        <v>1</v>
+      </c>
       <c r="R3" s="22"/>
-      <c r="X3" t="e">
+      <c r="U3" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z3">
+      <c r="W3">
         <f>IF(A3=1,1,IF(A3=2,2,IF(A3=3,3,IF(A3=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="X3">
         <f>IF(B3=1,1,IF(B3=2,2,IF(B3=3,3,IF(B3=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f>IF(C3=1,1,IF(C3=2,2,IF(C3=3,3,IF(C3=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <f>IF(C3=1,1,IF(C3=2,2,IF(C3=3,3,IF(C3=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AE3">
         <f>IF(F3=1,1,IF(F3=2,2,IF(F3=3,3,IF(F3=4,4,0))))</f>
         <v>3</v>
       </c>
-      <c r="AF3">
+      <c r="AC3">
         <f>IF(G3=1,1,IF(G3=2,2,IF(G3=3,3,IF(G3=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <f>IF(H3=1,1,IF(H3=2,2,IF(H3=3,3,IF(H3=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f>IF(H3=1,1,IF(H3=2,2,IF(H3=3,3,IF(H3=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
         <f>IF(K3=1,1,IF(K3=2,2,IF(K3=3,3,IF(K3=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AK3">
+      <c r="AH3">
         <f>IF(L3=1,1,IF(L3=2,2,IF(L3=3,3,IF(L3=4,4,0))))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <f>IF(M3=1,1,IF(M3=2,2,IF(M3=3,3,IF(M3=4,4,0))))</f>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <f>IF(M3=1,1,IF(M3=2,2,IF(M3=3,3,IF(M3=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO3">
         <f>IF(P3=1,1,IF(P3=2,2,IF(P3=3,3,IF(P3=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP3">
-        <f>IF(Q3=1,1,IF(Q3=2,2,IF(Q3=3,3,IF(Q3=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <f>IF(R3=1,1,IF(R3=2,2,IF(R3=3,3,IF(R3=4,4,0))))</f>
-        <v>0</v>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM4" si="2">IF(Q3=1,1,IF(Q3=2,2,IF(Q3=3,3,IF(Q3=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN4" si="3">IF(R3=1,1,IF(R3=2,2,IF(R3=3,3,IF(R3=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f>IF(W3=1,1,0)+IF(X3=1,1,0)+IF(Y3=1,1,0)+IF(AB3=1,1,0)+IF(AC3=1,1,0)+IF(AD3=1,1,0)+IF(AG3=1,1,0)+IF(AH3=1,1,0)+IF(AI3=1,1,0)+IF(AL3=1,1,0)+IF(AM3=1,1,0)+IF(AN3=1,1,0)+IF(AQ3=1,1,0)+IF(AR3=1,1,0)+IF(AS3=1,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <f>IF(W3=2,1,0)+IF(X3=2,1,0)+IF(Y3=2,1,0)+IF(AB3=2,1,0)+IF(AC3=2,1,0)+IF(AD3=2,1,0)+IF(AG3=2,1,0)+IF(AH3=2,1,0)+IF(AI3=2,1,0)+IF(AL3=2,1,0)+IF(AM3=2,1,0)+IF(AN3=2,1,0)+IF(AQ3=2,1,0)+IF(AR3=2,1,0)+IF(AS3=2,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <f>IF(X3=3,1,0)+IF(Y3=3,1,0)+IF(W3=3,1,0)+IF(AC3=3,1,0)+IF(AD3=3,1,0)+IF(AB3=3,1,0)+IF(AH3=3,1,0)+IF(AI3=3,1,0)+IF(AG3=3,1,0)+IF(AM3=3,1,0)+IF(AN3=3,1,0)+IF(AL3=3,1,0)+IF(AR3=3,1,0)+IF(AS3=3,1,0)+IF(AQ3=3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <f t="shared" si="0"/>
+        <f>IF(Y3=4,1,0)+IF(W3=4,1,0)+IF(X3=4,1,0)+IF(AD3=4,1,0)+IF(AB3=4,1,0)+IF(AC3=4,1,0)+IF(AI3=4,1,0)+IF(AG3=4,1,0)+IF(AH3=4,1,0)+IF(AN3=4,1,0)+IF(AL3=4,1,0)+IF(AM3=4,1,0)+IF(AS3=4,1,0)+IF(AQ3=4,1,0)+IF(AR3=4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AY3">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AZ3">
-        <f>IF(AA3=3,1,0)+IF(AB3=3,1,0)+IF(Z3=3,1,0)+IF(AF3=3,1,0)+IF(AG3=3,1,0)+IF(AE3=3,1,0)+IF(AK3=3,1,0)+IF(AL3=3,1,0)+IF(AJ3=3,1,0)+IF(AP3=3,1,0)+IF(AQ3=3,1,0)+IF(AO3=3,1,0)+IF(AU3=3,1,0)+IF(AV3=3,1,0)+IF(AT3=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" ref="BA3:BA4" si="3">IF(AB3=4,1,0)+IF(Z3=4,1,0)+IF(AA3=4,1,0)+IF(AG3=4,1,0)+IF(AE3=4,1,0)+IF(AF3=4,1,0)+IF(AL3=4,1,0)+IF(AJ3=4,1,0)+IF(AK3=4,1,0)+IF(AQ3=4,1,0)+IF(AO3=4,1,0)+IF(AP3=4,1,0)+IF(AV3=4,1,0)+IF(AT3=4,1,0)+IF(AU3=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="81">
+      <c r="C4" s="80">
         <v>4</v>
       </c>
       <c r="F4" s="20"/>
@@ -15522,105 +15546,105 @@
       <c r="Q4" s="71">
         <v>2</v>
       </c>
-      <c r="R4" s="80">
-        <v>4</v>
-      </c>
-      <c r="X4" t="e">
+      <c r="R4" s="79">
+        <v>4</v>
+      </c>
+      <c r="U4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z4">
+      <c r="W4">
         <f>IF(A4=1,1,IF(A4=2,2,IF(A4=3,3,IF(A4=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="X4">
         <f>IF(B4=1,1,IF(B4=2,2,IF(B4=3,3,IF(B4=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y4">
+        <f>IF(C4=1,1,IF(C4=2,2,IF(C4=3,3,IF(C4=4,4,0))))</f>
+        <v>4</v>
+      </c>
       <c r="AB4">
-        <f>IF(C4=1,1,IF(C4=2,2,IF(C4=3,3,IF(C4=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AE4">
         <f>IF(F4=1,1,IF(F4=2,2,IF(F4=3,3,IF(F4=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF4">
+      <c r="AC4">
         <f>IF(G4=1,1,IF(G4=2,2,IF(G4=3,3,IF(G4=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD4">
+        <f>IF(H4=1,1,IF(H4=2,2,IF(H4=3,3,IF(H4=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG4">
-        <f>IF(H4=1,1,IF(H4=2,2,IF(H4=3,3,IF(H4=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
         <f>IF(K4=1,1,IF(K4=2,2,IF(K4=3,3,IF(K4=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK4">
+      <c r="AH4">
         <f>IF(L4=1,1,IF(L4=2,2,IF(L4=3,3,IF(L4=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AI4">
+        <f>IF(M4=1,1,IF(M4=2,2,IF(M4=3,3,IF(M4=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AL4">
-        <f>IF(M4=1,1,IF(M4=2,2,IF(M4=3,3,IF(M4=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AO4">
         <f>IF(P4=1,1,IF(P4=2,2,IF(P4=3,3,IF(P4=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AP4">
-        <f>IF(Q4=1,1,IF(Q4=2,2,IF(Q4=3,3,IF(Q4=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ4">
-        <f>IF(R4=1,1,IF(R4=2,2,IF(R4=3,3,IF(R4=4,4,0))))</f>
-        <v>4</v>
+      <c r="AM4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <f>IF(W4=1,1,0)+IF(X4=1,1,0)+IF(Y4=1,1,0)+IF(AB4=1,1,0)+IF(AC4=1,1,0)+IF(AD4=1,1,0)+IF(AG4=1,1,0)+IF(AH4=1,1,0)+IF(AI4=1,1,0)+IF(AL4=1,1,0)+IF(AM4=1,1,0)+IF(AN4=1,1,0)+IF(AQ4=1,1,0)+IF(AR4=1,1,0)+IF(AS4=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <f>IF(W4=2,1,0)+IF(X4=2,1,0)+IF(Y4=2,1,0)+IF(AB4=2,1,0)+IF(AC4=2,1,0)+IF(AD4=2,1,0)+IF(AG4=2,1,0)+IF(AH4=2,1,0)+IF(AI4=2,1,0)+IF(AL4=2,1,0)+IF(AM4=2,1,0)+IF(AN4=2,1,0)+IF(AQ4=2,1,0)+IF(AR4=2,1,0)+IF(AS4=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <f>IF(X4=3,1,0)+IF(Y4=3,1,0)+IF(W4=3,1,0)+IF(AC4=3,1,0)+IF(AD4=3,1,0)+IF(AB4=3,1,0)+IF(AH4=3,1,0)+IF(AI4=3,1,0)+IF(AG4=3,1,0)+IF(AM4=3,1,0)+IF(AN4=3,1,0)+IF(AL4=3,1,0)+IF(AR4=3,1,0)+IF(AS4=3,1,0)+IF(AQ4=3,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="0"/>
+        <f>IF(Y4=4,1,0)+IF(W4=4,1,0)+IF(X4=4,1,0)+IF(AD4=4,1,0)+IF(AB4=4,1,0)+IF(AC4=4,1,0)+IF(AI4=4,1,0)+IF(AG4=4,1,0)+IF(AH4=4,1,0)+IF(AN4=4,1,0)+IF(AL4=4,1,0)+IF(AM4=4,1,0)+IF(AS4=4,1,0)+IF(AQ4=4,1,0)+IF(AR4=4,1,0)</f>
         <v>2</v>
       </c>
       <c r="AY4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <f>IF(AA4=3,1,0)+IF(AB4=3,1,0)+IF(Z4=3,1,0)+IF(AF4=3,1,0)+IF(AG4=3,1,0)+IF(AE4=3,1,0)+IF(AK4=3,1,0)+IF(AL4=3,1,0)+IF(AJ4=3,1,0)+IF(AP4=3,1,0)+IF(AQ4=3,1,0)+IF(AO4=3,1,0)+IF(AU4=3,1,0)+IF(AV4=3,1,0)+IF(AT4=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BB4">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AX5">
-        <f>SUM(AX2:AX4)</f>
-        <v>5</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" ref="AY5:BA5" si="4">SUM(AY2:AY4)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ5">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU5" t="e">
+        <f>SUM(AU2:AU4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV5" t="e">
+        <f t="shared" ref="AV5:AX5" si="4">SUM(AV2:AV4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW5" t="e">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BA5">
+        <v>#REF!</v>
+      </c>
+      <c r="AX5" t="e">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BB5">
-        <f>SUM(AX5:BA5)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="AY5" t="e">
+        <f>SUM(AU5:AX5)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -15634,14 +15658,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
       <c r="C7" s="18"/>
       <c r="F7" s="17"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="11">
-        <v>2</v>
+      <c r="H7" s="62">
+        <v>4</v>
       </c>
       <c r="K7" s="12">
         <v>1</v>
@@ -15657,178 +15681,186 @@
       <c r="R7" s="38">
         <v>3</v>
       </c>
+      <c r="U7">
+        <f>SUM(A7:S7)</f>
+        <v>13</v>
+      </c>
+      <c r="W7">
+        <f>IF(A7=1,1,IF(A7=2,2,IF(A7=3,3,IF(A7=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X7">
-        <f>SUM(A7:S7)</f>
-        <v>11</v>
-      </c>
-      <c r="Z7">
-        <f>IF(A7=1,1,IF(A7=2,2,IF(A7=3,3,IF(A7=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
         <f>IF(B7=1,1,IF(B7=2,2,IF(B7=3,3,IF(B7=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y7">
+        <f>IF(C7=1,1,IF(C7=2,2,IF(C7=3,3,IF(C7=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB7">
-        <f>IF(C7=1,1,IF(C7=2,2,IF(C7=3,3,IF(C7=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
         <f>IF(F7=1,1,IF(F7=2,2,IF(F7=3,3,IF(F7=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF7">
+      <c r="AC7">
         <f>IF(G7=1,1,IF(G7=2,2,IF(G7=3,3,IF(G7=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD7">
+        <f>IF(H7=1,1,IF(H7=2,2,IF(H7=3,3,IF(H7=4,4,0))))</f>
+        <v>4</v>
+      </c>
       <c r="AG7">
-        <f>IF(H7=1,1,IF(H7=2,2,IF(H7=3,3,IF(H7=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ7">
         <f>IF(K7=1,1,IF(K7=2,2,IF(K7=3,3,IF(K7=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AK7">
+      <c r="AH7">
         <f>IF(L7=1,1,IF(L7=2,2,IF(L7=3,3,IF(L7=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AI7">
+        <f>IF(M7=1,1,IF(M7=2,2,IF(M7=3,3,IF(M7=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AL7">
-        <f>IF(M7=1,1,IF(M7=2,2,IF(M7=3,3,IF(M7=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO7">
         <f>IF(P7=1,1,IF(P7=2,2,IF(P7=3,3,IF(P7=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AP7">
-        <f>IF(Q7=1,1,IF(Q7=2,2,IF(Q7=3,3,IF(Q7=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AQ7">
-        <f>IF(R7=1,1,IF(R7=2,2,IF(R7=3,3,IF(R7=4,4,0))))</f>
-        <v>3</v>
+      <c r="AM7">
+        <f t="shared" ref="AM7:AM9" si="5">IF(Q7=1,1,IF(Q7=2,2,IF(Q7=3,3,IF(Q7=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ref="AN7:AN9" si="6">IF(R7=1,1,IF(R7=2,2,IF(R7=3,3,IF(R7=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <f>IF(W7=1,1,0)+IF(X7=1,1,0)+IF(Y7=1,1,0)+IF(AB7=1,1,0)+IF(AC7=1,1,0)+IF(AD7=1,1,0)+IF(AG7=1,1,0)+IF(AH7=1,1,0)+IF(AI7=1,1,0)+IF(AL7=1,1,0)+IF(AM7=1,1,0)+IF(AN7=1,1,0)+IF(AQ7=1,1,0)+IF(AR7=1,1,0)+IF(AS7=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <f>IF(W7=2,1,0)+IF(X7=2,1,0)+IF(Y7=2,1,0)+IF(AB7=2,1,0)+IF(AC7=2,1,0)+IF(AD7=2,1,0)+IF(AG7=2,1,0)+IF(AH7=2,1,0)+IF(AI7=2,1,0)+IF(AL7=2,1,0)+IF(AM7=2,1,0)+IF(AN7=2,1,0)+IF(AQ7=2,1,0)+IF(AR7=2,1,0)+IF(AS7=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f>IF(X7=3,1,0)+IF(Y7=3,1,0)+IF(W7=3,1,0)+IF(AC7=3,1,0)+IF(AD7=3,1,0)+IF(AB7=3,1,0)+IF(AH7=3,1,0)+IF(AI7=3,1,0)+IF(AG7=3,1,0)+IF(AM7=3,1,0)+IF(AN7=3,1,0)+IF(AL7=3,1,0)+IF(AR7=3,1,0)+IF(AS7=3,1,0)+IF(AQ7=3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <f t="shared" ref="AX7:AX9" si="5">IF(Z7=1,1,0)+IF(AA7=1,1,0)+IF(AB7=1,1,0)+IF(AE7=1,1,0)+IF(AF7=1,1,0)+IF(AG7=1,1,0)+IF(AJ7=1,1,0)+IF(AK7=1,1,0)+IF(AL7=1,1,0)+IF(AO7=1,1,0)+IF(AP7=1,1,0)+IF(AQ7=1,1,0)+IF(AT7=1,1,0)+IF(AU7=1,1,0)+IF(AV7=1,1,0)</f>
+        <f>IF(Y7=4,1,0)+IF(W7=4,1,0)+IF(X7=4,1,0)+IF(AD7=4,1,0)+IF(AB7=4,1,0)+IF(AC7=4,1,0)+IF(AI7=4,1,0)+IF(AG7=4,1,0)+IF(AH7=4,1,0)+IF(AN7=4,1,0)+IF(AL7=4,1,0)+IF(AM7=4,1,0)+IF(AS7=4,1,0)+IF(AQ7=4,1,0)+IF(AR7=4,1,0)</f>
         <v>2</v>
       </c>
       <c r="AY7">
-        <f t="shared" ref="AY7:AY9" si="6">IF(Z7=2,1,0)+IF(AA7=2,1,0)+IF(AB7=2,1,0)+IF(AE7=2,1,0)+IF(AF7=2,1,0)+IF(AG7=2,1,0)+IF(AJ7=2,1,0)+IF(AK7=2,1,0)+IF(AL7=2,1,0)+IF(AO7=2,1,0)+IF(AP7=2,1,0)+IF(AQ7=2,1,0)+IF(AT7=2,1,0)+IF(AU7=2,1,0)+IF(AV7=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <f>IF(AA7=3,1,0)+IF(AB7=3,1,0)+IF(Z7=3,1,0)+IF(AF7=3,1,0)+IF(AG7=3,1,0)+IF(AE7=3,1,0)+IF(AK7=3,1,0)+IF(AL7=3,1,0)+IF(AJ7=3,1,0)+IF(AP7=3,1,0)+IF(AQ7=3,1,0)+IF(AO7=3,1,0)+IF(AU7=3,1,0)+IF(AV7=3,1,0)+IF(AT7=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <f>IF(AB7=4,1,0)+IF(Z7=4,1,0)+IF(AA7=4,1,0)+IF(AG7=4,1,0)+IF(AE7=4,1,0)+IF(AF7=4,1,0)+IF(AL7=4,1,0)+IF(AJ7=4,1,0)+IF(AK7=4,1,0)+IF(AQ7=4,1,0)+IF(AO7=4,1,0)+IF(AP7=4,1,0)+IF(AV7=4,1,0)+IF(AT7=4,1,0)+IF(AU7=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <f t="shared" ref="BB7:BB9" si="7">SUM(AX7:BA7)</f>
+        <f t="shared" ref="AY7:AY9" si="7">SUM(AU7:AX7)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="82">
+      <c r="B8" s="36">
+        <v>2</v>
+      </c>
+      <c r="C8" s="81">
         <v>1</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="36">
+        <v>2</v>
+      </c>
       <c r="H8" s="38">
         <v>3</v>
       </c>
-      <c r="K8" s="62">
-        <v>4</v>
-      </c>
-      <c r="L8" s="22"/>
+      <c r="K8" s="73">
+        <v>2</v>
+      </c>
+      <c r="L8" s="61">
+        <v>4</v>
+      </c>
       <c r="M8" s="22"/>
       <c r="P8" s="19"/>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
       <c r="R8" s="22"/>
       <c r="S8" t="s">
         <v>48</v>
       </c>
+      <c r="U8">
+        <f>SUM(B8:S8)</f>
+        <v>15</v>
+      </c>
+      <c r="W8">
+        <f>IF(A8=1,1,IF(A8=2,2,IF(A8=3,3,IF(A8=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X8">
-        <f>SUM(B8:S8)</f>
-        <v>8</v>
-      </c>
-      <c r="Z8">
-        <f>IF(A8=1,1,IF(A8=2,2,IF(A8=3,3,IF(A8=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
         <f>IF(B8=1,1,IF(B8=2,2,IF(B8=3,3,IF(B8=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <f>IF(C8=1,1,IF(C8=2,2,IF(C8=3,3,IF(C8=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <f>IF(C8=1,1,IF(C8=2,2,IF(C8=3,3,IF(C8=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AE8">
         <f>IF(F8=1,1,IF(F8=2,2,IF(F8=3,3,IF(F8=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF8">
+      <c r="AC8">
         <f>IF(G8=1,1,IF(G8=2,2,IF(G8=3,3,IF(G8=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <f>IF(H8=1,1,IF(H8=2,2,IF(H8=3,3,IF(H8=4,4,0))))</f>
+        <v>3</v>
       </c>
       <c r="AG8">
-        <f>IF(H8=1,1,IF(H8=2,2,IF(H8=3,3,IF(H8=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ8">
         <f>IF(K8=1,1,IF(K8=2,2,IF(K8=3,3,IF(K8=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
         <f>IF(L8=1,1,IF(L8=2,2,IF(L8=3,3,IF(L8=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <f>IF(M8=1,1,IF(M8=2,2,IF(M8=3,3,IF(M8=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>IF(M8=1,1,IF(M8=2,2,IF(M8=3,3,IF(M8=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO8">
         <f>IF(P8=1,1,IF(P8=2,2,IF(P8=3,3,IF(P8=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP8">
-        <f>IF(Q8=1,1,IF(Q8=2,2,IF(Q8=3,3,IF(Q8=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <f>IF(R8=1,1,IF(R8=2,2,IF(R8=3,3,IF(R8=4,4,0))))</f>
-        <v>0</v>
+      <c r="AM8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f>IF(W8=1,1,0)+IF(X8=1,1,0)+IF(Y8=1,1,0)+IF(AB8=1,1,0)+IF(AC8=1,1,0)+IF(AD8=1,1,0)+IF(AG8=1,1,0)+IF(AH8=1,1,0)+IF(AI8=1,1,0)+IF(AL8=1,1,0)+IF(AM8=1,1,0)+IF(AN8=1,1,0)+IF(AQ8=1,1,0)+IF(AR8=1,1,0)+IF(AS8=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <f>IF(W8=2,1,0)+IF(X8=2,1,0)+IF(Y8=2,1,0)+IF(AB8=2,1,0)+IF(AC8=2,1,0)+IF(AD8=2,1,0)+IF(AG8=2,1,0)+IF(AH8=2,1,0)+IF(AI8=2,1,0)+IF(AL8=2,1,0)+IF(AM8=2,1,0)+IF(AN8=2,1,0)+IF(AQ8=2,1,0)+IF(AR8=2,1,0)+IF(AS8=2,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW8">
+        <f>IF(X8=3,1,0)+IF(Y8=3,1,0)+IF(W8=3,1,0)+IF(AC8=3,1,0)+IF(AD8=3,1,0)+IF(AB8=3,1,0)+IF(AH8=3,1,0)+IF(AI8=3,1,0)+IF(AG8=3,1,0)+IF(AM8=3,1,0)+IF(AN8=3,1,0)+IF(AL8=3,1,0)+IF(AR8=3,1,0)+IF(AS8=3,1,0)+IF(AQ8=3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="5"/>
+        <f>IF(Y8=4,1,0)+IF(W8=4,1,0)+IF(X8=4,1,0)+IF(AD8=4,1,0)+IF(AB8=4,1,0)+IF(AC8=4,1,0)+IF(AI8=4,1,0)+IF(AG8=4,1,0)+IF(AH8=4,1,0)+IF(AN8=4,1,0)+IF(AL8=4,1,0)+IF(AM8=4,1,0)+IF(AS8=4,1,0)+IF(AQ8=4,1,0)+IF(AR8=4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <f>IF(AA8=3,1,0)+IF(AB8=3,1,0)+IF(Z8=3,1,0)+IF(AF8=3,1,0)+IF(AG8=3,1,0)+IF(AE8=3,1,0)+IF(AK8=3,1,0)+IF(AL8=3,1,0)+IF(AJ8=3,1,0)+IF(AP8=3,1,0)+IF(AQ8=3,1,0)+IF(AO8=3,1,0)+IF(AU8=3,1,0)+IF(AV8=3,1,0)+IF(AT8=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA8">
-        <f t="shared" ref="BA8:BA9" si="8">IF(AB8=4,1,0)+IF(Z8=4,1,0)+IF(AA8=4,1,0)+IF(AG8=4,1,0)+IF(AE8=4,1,0)+IF(AF8=4,1,0)+IF(AL8=4,1,0)+IF(AJ8=4,1,0)+IF(AK8=4,1,0)+IF(AQ8=4,1,0)+IF(AO8=4,1,0)+IF(AP8=4,1,0)+IF(AV8=4,1,0)+IF(AT8=4,1,0)+IF(AU8=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB8">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="71">
-        <v>2</v>
+      <c r="B9" s="81">
+        <v>1</v>
       </c>
       <c r="C9" s="76">
         <v>3</v>
@@ -15852,102 +15884,102 @@
         <v>2</v>
       </c>
       <c r="R9" s="23"/>
+      <c r="U9">
+        <f>SUM(A9:S9)</f>
+        <v>13</v>
+      </c>
+      <c r="W9">
+        <f>IF(A9=1,1,IF(A9=2,2,IF(A9=3,3,IF(A9=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X9">
-        <f>SUM(A9:S9)</f>
-        <v>14</v>
-      </c>
-      <c r="Z9">
-        <f>IF(A9=1,1,IF(A9=2,2,IF(A9=3,3,IF(A9=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA9">
         <f>IF(B9=1,1,IF(B9=2,2,IF(B9=3,3,IF(B9=4,4,0))))</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <f>IF(C9=1,1,IF(C9=2,2,IF(C9=3,3,IF(C9=4,4,0))))</f>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <f>IF(C9=1,1,IF(C9=2,2,IF(C9=3,3,IF(C9=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AE9">
         <f>IF(F9=1,1,IF(F9=2,2,IF(F9=3,3,IF(F9=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF9">
+      <c r="AC9">
         <f>IF(G9=1,1,IF(G9=2,2,IF(G9=3,3,IF(G9=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD9">
+        <f>IF(H9=1,1,IF(H9=2,2,IF(H9=3,3,IF(H9=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AG9">
-        <f>IF(H9=1,1,IF(H9=2,2,IF(H9=3,3,IF(H9=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ9">
         <f>IF(K9=1,1,IF(K9=2,2,IF(K9=3,3,IF(K9=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK9">
+      <c r="AH9">
         <f>IF(L9=1,1,IF(L9=2,2,IF(L9=3,3,IF(L9=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AI9">
+        <f>IF(M9=1,1,IF(M9=2,2,IF(M9=3,3,IF(M9=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="AL9">
-        <f>IF(M9=1,1,IF(M9=2,2,IF(M9=3,3,IF(M9=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO9">
         <f>IF(P9=1,1,IF(P9=2,2,IF(P9=3,3,IF(P9=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AP9">
-        <f>IF(Q9=1,1,IF(Q9=2,2,IF(Q9=3,3,IF(Q9=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ9">
-        <f>IF(R9=1,1,IF(R9=2,2,IF(R9=3,3,IF(R9=4,4,0))))</f>
-        <v>0</v>
+      <c r="AM9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f>IF(W9=1,1,0)+IF(X9=1,1,0)+IF(Y9=1,1,0)+IF(AB9=1,1,0)+IF(AC9=1,1,0)+IF(AD9=1,1,0)+IF(AG9=1,1,0)+IF(AH9=1,1,0)+IF(AI9=1,1,0)+IF(AL9=1,1,0)+IF(AM9=1,1,0)+IF(AN9=1,1,0)+IF(AQ9=1,1,0)+IF(AR9=1,1,0)+IF(AS9=1,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <f>IF(W9=2,1,0)+IF(X9=2,1,0)+IF(Y9=2,1,0)+IF(AB9=2,1,0)+IF(AC9=2,1,0)+IF(AD9=2,1,0)+IF(AG9=2,1,0)+IF(AH9=2,1,0)+IF(AI9=2,1,0)+IF(AL9=2,1,0)+IF(AM9=2,1,0)+IF(AN9=2,1,0)+IF(AQ9=2,1,0)+IF(AR9=2,1,0)+IF(AS9=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <f>IF(X9=3,1,0)+IF(Y9=3,1,0)+IF(W9=3,1,0)+IF(AC9=3,1,0)+IF(AD9=3,1,0)+IF(AB9=3,1,0)+IF(AH9=3,1,0)+IF(AI9=3,1,0)+IF(AG9=3,1,0)+IF(AM9=3,1,0)+IF(AN9=3,1,0)+IF(AL9=3,1,0)+IF(AR9=3,1,0)+IF(AS9=3,1,0)+IF(AQ9=3,1,0)</f>
+        <v>2</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(Y9=4,1,0)+IF(W9=4,1,0)+IF(X9=4,1,0)+IF(AD9=4,1,0)+IF(AB9=4,1,0)+IF(AC9=4,1,0)+IF(AI9=4,1,0)+IF(AG9=4,1,0)+IF(AH9=4,1,0)+IF(AN9=4,1,0)+IF(AL9=4,1,0)+IF(AM9=4,1,0)+IF(AS9=4,1,0)+IF(AQ9=4,1,0)+IF(AR9=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AZ9">
-        <f>IF(AA9=3,1,0)+IF(AB9=3,1,0)+IF(Z9=3,1,0)+IF(AF9=3,1,0)+IF(AG9=3,1,0)+IF(AE9=3,1,0)+IF(AK9=3,1,0)+IF(AL9=3,1,0)+IF(AJ9=3,1,0)+IF(AP9=3,1,0)+IF(AQ9=3,1,0)+IF(AO9=3,1,0)+IF(AU9=3,1,0)+IF(AV9=3,1,0)+IF(AT9=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BB9">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU10">
+        <f>SUM(AU7:AU9)</f>
+        <v>7</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" ref="AV10:AX10" si="8">SUM(AV7:AV9)</f>
+        <v>5</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="AX10">
-        <f>SUM(AX7:AX9)</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="AY10">
-        <f t="shared" ref="AY10:BA10" si="9">SUM(AY7:AY9)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ10">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BA10">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="BB10">
-        <f>SUM(AX10:BA10)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+        <f>SUM(AU10:AX10)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -15961,7 +15993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="72">
         <v>3</v>
       </c>
@@ -15971,8 +16003,8 @@
       <c r="G12" s="78">
         <v>4</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
+      <c r="H12" s="73">
+        <v>2</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="58">
@@ -15988,173 +16020,181 @@
       <c r="R12" s="12">
         <v>1</v>
       </c>
+      <c r="U12">
+        <f>SUM(A12:S12)</f>
+        <v>16</v>
+      </c>
+      <c r="W12">
+        <f>IF(A12=1,1,IF(A12=2,2,IF(A12=3,3,IF(A12=4,4,0))))</f>
+        <v>3</v>
+      </c>
       <c r="X12">
-        <f>SUM(A12:S12)</f>
-        <v>15</v>
-      </c>
-      <c r="Z12">
-        <f>IF(A12=1,1,IF(A12=2,2,IF(A12=3,3,IF(A12=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AA12">
         <f>IF(B12=1,1,IF(B12=2,2,IF(B12=3,3,IF(B12=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y12">
+        <f>IF(C12=1,1,IF(C12=2,2,IF(C12=3,3,IF(C12=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB12">
-        <f>IF(C12=1,1,IF(C12=2,2,IF(C12=3,3,IF(C12=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE12">
         <f>IF(F12=1,1,IF(F12=2,2,IF(F12=3,3,IF(F12=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF12">
+      <c r="AC12">
         <f>IF(G12=1,1,IF(G12=2,2,IF(G12=3,3,IF(G12=4,4,0))))</f>
         <v>4</v>
       </c>
+      <c r="AD12">
+        <f>IF(H12=1,1,IF(H12=2,2,IF(H12=3,3,IF(H12=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="AG12">
-        <f>IF(H12=1,1,IF(H12=2,2,IF(H12=3,3,IF(H12=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ12">
         <f>IF(K12=1,1,IF(K12=2,2,IF(K12=3,3,IF(K12=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK12">
+      <c r="AH12">
         <f>IF(L12=1,1,IF(L12=2,2,IF(L12=3,3,IF(L12=4,4,0))))</f>
         <v>1</v>
       </c>
+      <c r="AI12">
+        <f>IF(M12=1,1,IF(M12=2,2,IF(M12=3,3,IF(M12=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="AL12">
-        <f>IF(M12=1,1,IF(M12=2,2,IF(M12=3,3,IF(M12=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO12">
         <f>IF(P12=1,1,IF(P12=2,2,IF(P12=3,3,IF(P12=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP12">
-        <f>IF(Q12=1,1,IF(Q12=2,2,IF(Q12=3,3,IF(Q12=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AQ12">
-        <f>IF(R12=1,1,IF(R12=2,2,IF(R12=3,3,IF(R12=4,4,0))))</f>
-        <v>1</v>
+      <c r="AM12">
+        <f t="shared" ref="AM12:AM14" si="9">IF(Q12=1,1,IF(Q12=2,2,IF(Q12=3,3,IF(Q12=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" ref="AN12:AN14" si="10">IF(R12=1,1,IF(R12=2,2,IF(R12=3,3,IF(R12=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <f>IF(W12=1,1,0)+IF(X12=1,1,0)+IF(Y12=1,1,0)+IF(AB12=1,1,0)+IF(AC12=1,1,0)+IF(AD12=1,1,0)+IF(AG12=1,1,0)+IF(AH12=1,1,0)+IF(AI12=1,1,0)+IF(AL12=1,1,0)+IF(AM12=1,1,0)+IF(AN12=1,1,0)+IF(AQ12=1,1,0)+IF(AR12=1,1,0)+IF(AS12=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <f>IF(W12=2,1,0)+IF(X12=2,1,0)+IF(Y12=2,1,0)+IF(AB12=2,1,0)+IF(AC12=2,1,0)+IF(AD12=2,1,0)+IF(AG12=2,1,0)+IF(AH12=2,1,0)+IF(AI12=2,1,0)+IF(AL12=2,1,0)+IF(AM12=2,1,0)+IF(AN12=2,1,0)+IF(AQ12=2,1,0)+IF(AR12=2,1,0)+IF(AS12=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <f>IF(X12=3,1,0)+IF(Y12=3,1,0)+IF(W12=3,1,0)+IF(AC12=3,1,0)+IF(AD12=3,1,0)+IF(AB12=3,1,0)+IF(AH12=3,1,0)+IF(AI12=3,1,0)+IF(AG12=3,1,0)+IF(AM12=3,1,0)+IF(AN12=3,1,0)+IF(AL12=3,1,0)+IF(AR12=3,1,0)+IF(AS12=3,1,0)+IF(AQ12=3,1,0)</f>
+        <v>2</v>
       </c>
       <c r="AX12">
-        <f t="shared" ref="AX12:AX14" si="10">IF(Z12=1,1,0)+IF(AA12=1,1,0)+IF(AB12=1,1,0)+IF(AE12=1,1,0)+IF(AF12=1,1,0)+IF(AG12=1,1,0)+IF(AJ12=1,1,0)+IF(AK12=1,1,0)+IF(AL12=1,1,0)+IF(AO12=1,1,0)+IF(AP12=1,1,0)+IF(AQ12=1,1,0)+IF(AT12=1,1,0)+IF(AU12=1,1,0)+IF(AV12=1,1,0)</f>
-        <v>3</v>
+        <f>IF(Y12=4,1,0)+IF(W12=4,1,0)+IF(X12=4,1,0)+IF(AD12=4,1,0)+IF(AB12=4,1,0)+IF(AC12=4,1,0)+IF(AI12=4,1,0)+IF(AG12=4,1,0)+IF(AH12=4,1,0)+IF(AN12=4,1,0)+IF(AL12=4,1,0)+IF(AM12=4,1,0)+IF(AS12=4,1,0)+IF(AQ12=4,1,0)+IF(AR12=4,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AY12">
-        <f t="shared" ref="AY12:AY14" si="11">IF(Z12=2,1,0)+IF(AA12=2,1,0)+IF(AB12=2,1,0)+IF(AE12=2,1,0)+IF(AF12=2,1,0)+IF(AG12=2,1,0)+IF(AJ12=2,1,0)+IF(AK12=2,1,0)+IF(AL12=2,1,0)+IF(AO12=2,1,0)+IF(AP12=2,1,0)+IF(AQ12=2,1,0)+IF(AT12=2,1,0)+IF(AU12=2,1,0)+IF(AV12=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ12">
-        <f>IF(AA12=3,1,0)+IF(AB12=3,1,0)+IF(Z12=3,1,0)+IF(AF12=3,1,0)+IF(AG12=3,1,0)+IF(AE12=3,1,0)+IF(AK12=3,1,0)+IF(AL12=3,1,0)+IF(AJ12=3,1,0)+IF(AP12=3,1,0)+IF(AQ12=3,1,0)+IF(AO12=3,1,0)+IF(AU12=3,1,0)+IF(AV12=3,1,0)+IF(AT12=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA12">
-        <f>IF(AB12=4,1,0)+IF(Z12=4,1,0)+IF(AA12=4,1,0)+IF(AG12=4,1,0)+IF(AE12=4,1,0)+IF(AF12=4,1,0)+IF(AL12=4,1,0)+IF(AJ12=4,1,0)+IF(AK12=4,1,0)+IF(AQ12=4,1,0)+IF(AO12=4,1,0)+IF(AP12=4,1,0)+IF(AV12=4,1,0)+IF(AT12=4,1,0)+IF(AU12=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <f t="shared" ref="BB12:BB14" si="12">SUM(AX12:BA12)</f>
+        <f t="shared" ref="AY12:AY14" si="11">SUM(AU12:AX12)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
-        <v>2</v>
-      </c>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13" s="82">
+        <v>2</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
       <c r="C13" s="22"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="73">
-        <v>2</v>
+      <c r="G13" s="73">
+        <v>2</v>
+      </c>
+      <c r="H13" s="58">
+        <v>1</v>
       </c>
       <c r="K13" s="19"/>
-      <c r="L13" s="22"/>
+      <c r="L13" s="83">
+        <v>4</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="61">
+        <v>4</v>
+      </c>
       <c r="R13" s="22"/>
       <c r="S13" t="s">
         <v>85</v>
       </c>
+      <c r="U13">
+        <f>SUM(A13:S13)</f>
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <f>IF(A13=1,1,IF(A13=2,2,IF(A13=3,3,IF(A13=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="X13">
-        <f>SUM(A13:S13)</f>
-        <v>4</v>
-      </c>
-      <c r="Z13">
-        <f>IF(A13=1,1,IF(A13=2,2,IF(A13=3,3,IF(A13=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AA13">
         <f>IF(B13=1,1,IF(B13=2,2,IF(B13=3,3,IF(B13=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>IF(C13=1,1,IF(C13=2,2,IF(C13=3,3,IF(C13=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>IF(C13=1,1,IF(C13=2,2,IF(C13=3,3,IF(C13=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE13">
         <f>IF(F13=1,1,IF(F13=2,2,IF(F13=3,3,IF(F13=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AC13">
         <f>IF(G13=1,1,IF(G13=2,2,IF(G13=3,3,IF(G13=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <f>IF(H13=1,1,IF(H13=2,2,IF(H13=3,3,IF(H13=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <f>IF(H13=1,1,IF(H13=2,2,IF(H13=3,3,IF(H13=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ13">
         <f>IF(K13=1,1,IF(K13=2,2,IF(K13=3,3,IF(K13=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK13">
+      <c r="AH13">
         <f>IF(L13=1,1,IF(L13=2,2,IF(L13=3,3,IF(L13=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <f>IF(M13=1,1,IF(M13=2,2,IF(M13=3,3,IF(M13=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f>IF(M13=1,1,IF(M13=2,2,IF(M13=3,3,IF(M13=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO13">
         <f>IF(P13=1,1,IF(P13=2,2,IF(P13=3,3,IF(P13=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP13">
-        <f>IF(Q13=1,1,IF(Q13=2,2,IF(Q13=3,3,IF(Q13=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <f>IF(R13=1,1,IF(R13=2,2,IF(R13=3,3,IF(R13=4,4,0))))</f>
+      <c r="AM13">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <f>IF(W13=1,1,0)+IF(X13=1,1,0)+IF(Y13=1,1,0)+IF(AB13=1,1,0)+IF(AC13=1,1,0)+IF(AD13=1,1,0)+IF(AG13=1,1,0)+IF(AH13=1,1,0)+IF(AI13=1,1,0)+IF(AL13=1,1,0)+IF(AM13=1,1,0)+IF(AN13=1,1,0)+IF(AQ13=1,1,0)+IF(AR13=1,1,0)+IF(AS13=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV13">
+        <f>IF(W13=2,1,0)+IF(X13=2,1,0)+IF(Y13=2,1,0)+IF(AB13=2,1,0)+IF(AC13=2,1,0)+IF(AD13=2,1,0)+IF(AG13=2,1,0)+IF(AH13=2,1,0)+IF(AI13=2,1,0)+IF(AL13=2,1,0)+IF(AM13=2,1,0)+IF(AN13=2,1,0)+IF(AQ13=2,1,0)+IF(AR13=2,1,0)+IF(AS13=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <f>IF(X13=3,1,0)+IF(Y13=3,1,0)+IF(W13=3,1,0)+IF(AC13=3,1,0)+IF(AD13=3,1,0)+IF(AB13=3,1,0)+IF(AH13=3,1,0)+IF(AI13=3,1,0)+IF(AG13=3,1,0)+IF(AM13=3,1,0)+IF(AN13=3,1,0)+IF(AL13=3,1,0)+IF(AR13=3,1,0)+IF(AS13=3,1,0)+IF(AQ13=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(Y13=4,1,0)+IF(W13=4,1,0)+IF(X13=4,1,0)+IF(AD13=4,1,0)+IF(AB13=4,1,0)+IF(AC13=4,1,0)+IF(AI13=4,1,0)+IF(AG13=4,1,0)+IF(AH13=4,1,0)+IF(AN13=4,1,0)+IF(AL13=4,1,0)+IF(AM13=4,1,0)+IF(AS13=4,1,0)+IF(AQ13=4,1,0)+IF(AR13=4,1,0)</f>
+        <v>2</v>
       </c>
       <c r="AY13">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AZ13">
-        <f>IF(AA13=3,1,0)+IF(AB13=3,1,0)+IF(Z13=3,1,0)+IF(AF13=3,1,0)+IF(AG13=3,1,0)+IF(AE13=3,1,0)+IF(AK13=3,1,0)+IF(AL13=3,1,0)+IF(AJ13=3,1,0)+IF(AP13=3,1,0)+IF(AQ13=3,1,0)+IF(AO13=3,1,0)+IF(AU13=3,1,0)+IF(AV13=3,1,0)+IF(AT13=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" ref="BA13:BA14" si="13">IF(AB13=4,1,0)+IF(Z13=4,1,0)+IF(AA13=4,1,0)+IF(AG13=4,1,0)+IF(AE13=4,1,0)+IF(AF13=4,1,0)+IF(AL13=4,1,0)+IF(AJ13=4,1,0)+IF(AK13=4,1,0)+IF(AQ13=4,1,0)+IF(AO13=4,1,0)+IF(AP13=4,1,0)+IF(AV13=4,1,0)+IF(AT13=4,1,0)+IF(AU13=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>1</v>
       </c>
@@ -16167,8 +16207,8 @@
       <c r="L14" s="34">
         <v>3</v>
       </c>
-      <c r="M14" s="84">
-        <v>4</v>
+      <c r="M14" s="58">
+        <v>1</v>
       </c>
       <c r="P14" s="67">
         <v>1</v>
@@ -16179,102 +16219,102 @@
       <c r="R14" s="56">
         <v>3</v>
       </c>
+      <c r="U14">
+        <f>SUM(A14:S14)</f>
+        <v>11</v>
+      </c>
+      <c r="W14">
+        <f>IF(A14=1,1,IF(A14=2,2,IF(A14=3,3,IF(A14=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="X14">
-        <f>SUM(A14:S14)</f>
-        <v>14</v>
-      </c>
-      <c r="Z14">
-        <f>IF(A14=1,1,IF(A14=2,2,IF(A14=3,3,IF(A14=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AA14">
         <f>IF(B14=1,1,IF(B14=2,2,IF(B14=3,3,IF(B14=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y14">
+        <f>IF(C14=1,1,IF(C14=2,2,IF(C14=3,3,IF(C14=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB14">
-        <f>IF(C14=1,1,IF(C14=2,2,IF(C14=3,3,IF(C14=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE14">
         <f>IF(F14=1,1,IF(F14=2,2,IF(F14=3,3,IF(F14=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF14">
+      <c r="AC14">
         <f>IF(G14=1,1,IF(G14=2,2,IF(G14=3,3,IF(G14=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD14">
+        <f>IF(H14=1,1,IF(H14=2,2,IF(H14=3,3,IF(H14=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG14">
-        <f>IF(H14=1,1,IF(H14=2,2,IF(H14=3,3,IF(H14=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ14">
         <f>IF(K14=1,1,IF(K14=2,2,IF(K14=3,3,IF(K14=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK14">
+      <c r="AH14">
         <f>IF(L14=1,1,IF(L14=2,2,IF(L14=3,3,IF(L14=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AI14">
+        <f>IF(M14=1,1,IF(M14=2,2,IF(M14=3,3,IF(M14=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AL14">
-        <f>IF(M14=1,1,IF(M14=2,2,IF(M14=3,3,IF(M14=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AO14">
         <f>IF(P14=1,1,IF(P14=2,2,IF(P14=3,3,IF(P14=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AP14">
-        <f>IF(Q14=1,1,IF(Q14=2,2,IF(Q14=3,3,IF(Q14=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <f>IF(R14=1,1,IF(R14=2,2,IF(R14=3,3,IF(R14=4,4,0))))</f>
-        <v>3</v>
+      <c r="AM14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AU14">
+        <f>IF(W14=1,1,0)+IF(X14=1,1,0)+IF(Y14=1,1,0)+IF(AB14=1,1,0)+IF(AC14=1,1,0)+IF(AD14=1,1,0)+IF(AG14=1,1,0)+IF(AH14=1,1,0)+IF(AI14=1,1,0)+IF(AL14=1,1,0)+IF(AM14=1,1,0)+IF(AN14=1,1,0)+IF(AQ14=1,1,0)+IF(AR14=1,1,0)+IF(AS14=1,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <f>IF(W14=2,1,0)+IF(X14=2,1,0)+IF(Y14=2,1,0)+IF(AB14=2,1,0)+IF(AC14=2,1,0)+IF(AD14=2,1,0)+IF(AG14=2,1,0)+IF(AH14=2,1,0)+IF(AI14=2,1,0)+IF(AL14=2,1,0)+IF(AM14=2,1,0)+IF(AN14=2,1,0)+IF(AQ14=2,1,0)+IF(AR14=2,1,0)+IF(AS14=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <f>IF(X14=3,1,0)+IF(Y14=3,1,0)+IF(W14=3,1,0)+IF(AC14=3,1,0)+IF(AD14=3,1,0)+IF(AB14=3,1,0)+IF(AH14=3,1,0)+IF(AI14=3,1,0)+IF(AG14=3,1,0)+IF(AM14=3,1,0)+IF(AN14=3,1,0)+IF(AL14=3,1,0)+IF(AR14=3,1,0)+IF(AS14=3,1,0)+IF(AQ14=3,1,0)</f>
+        <v>2</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>IF(Y14=4,1,0)+IF(W14=4,1,0)+IF(X14=4,1,0)+IF(AD14=4,1,0)+IF(AB14=4,1,0)+IF(AC14=4,1,0)+IF(AI14=4,1,0)+IF(AG14=4,1,0)+IF(AH14=4,1,0)+IF(AN14=4,1,0)+IF(AL14=4,1,0)+IF(AM14=4,1,0)+IF(AS14=4,1,0)+IF(AQ14=4,1,0)+IF(AR14=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY14">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AZ14">
-        <f>IF(AA14=3,1,0)+IF(AB14=3,1,0)+IF(Z14=3,1,0)+IF(AF14=3,1,0)+IF(AG14=3,1,0)+IF(AE14=3,1,0)+IF(AK14=3,1,0)+IF(AL14=3,1,0)+IF(AJ14=3,1,0)+IF(AP14=3,1,0)+IF(AQ14=3,1,0)+IF(AO14=3,1,0)+IF(AU14=3,1,0)+IF(AV14=3,1,0)+IF(AT14=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="BB14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU15">
+        <f>SUM(AU12:AU14)</f>
+        <v>7</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" ref="AV15:AX15" si="12">SUM(AV12:AV14)</f>
+        <v>5</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
       <c r="AX15">
-        <f>SUM(AX12:AX14)</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="AY15">
-        <f t="shared" ref="AY15:BA15" si="14">SUM(AY12:AY14)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ15">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="BB15">
-        <f>SUM(AX15:BA15)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+        <f>SUM(AU15:AX15)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -16288,12 +16328,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>2</v>
       </c>
-      <c r="B17" s="42">
-        <v>3</v>
+      <c r="B17" s="44">
+        <v>1</v>
       </c>
       <c r="C17" s="18"/>
       <c r="F17" s="68">
@@ -16302,9 +16342,6 @@
       <c r="G17" s="24"/>
       <c r="H17" s="18"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="37">
-        <v>2</v>
-      </c>
       <c r="M17" s="12">
         <v>1</v>
       </c>
@@ -16317,175 +16354,182 @@
       <c r="R17" s="57">
         <v>1</v>
       </c>
+      <c r="U17">
+        <f>SUM(A17:S17)</f>
+        <v>11</v>
+      </c>
+      <c r="W17">
+        <f>IF(A17=1,1,IF(A17=2,2,IF(A17=3,3,IF(A17=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="X17">
-        <f>SUM(A17:S17)</f>
-        <v>15</v>
-      </c>
-      <c r="Z17">
-        <f>IF(A17=1,1,IF(A17=2,2,IF(A17=3,3,IF(A17=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AA17">
         <f>IF(B17=1,1,IF(B17=2,2,IF(B17=3,3,IF(B17=4,4,0))))</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <f>IF(C17=1,1,IF(C17=2,2,IF(C17=3,3,IF(C17=4,4,0))))</f>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <f>IF(C17=1,1,IF(C17=2,2,IF(C17=3,3,IF(C17=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE17">
         <f>IF(F17=1,1,IF(F17=2,2,IF(F17=3,3,IF(F17=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AF17">
+      <c r="AC17">
         <f>IF(G17=1,1,IF(G17=2,2,IF(G17=3,3,IF(G17=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD17">
+        <f>IF(H17=1,1,IF(H17=2,2,IF(H17=3,3,IF(H17=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG17">
-        <f>IF(H17=1,1,IF(H17=2,2,IF(H17=3,3,IF(H17=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17">
         <f>IF(K17=1,1,IF(K17=2,2,IF(K17=3,3,IF(K17=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK17">
-        <f>IF(L17=1,1,IF(L17=2,2,IF(L17=3,3,IF(L17=4,4,0))))</f>
-        <v>2</v>
+      <c r="AH17">
+        <f>IF(M18=1,1,IF(M18=2,2,IF(M18=3,3,IF(M18=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <f>IF(M17=1,1,IF(M17=2,2,IF(M17=3,3,IF(M17=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <f>IF(M17=1,1,IF(M17=2,2,IF(M17=3,3,IF(M17=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AO17">
         <f>IF(P17=1,1,IF(P17=2,2,IF(P17=3,3,IF(P17=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AP17">
-        <f>IF(Q17=1,1,IF(Q17=2,2,IF(Q17=3,3,IF(Q17=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AQ17">
-        <f>IF(R17=1,1,IF(R17=2,2,IF(R17=3,3,IF(R17=4,4,0))))</f>
+      <c r="AM17">
+        <f t="shared" ref="AM17:AM20" si="13">IF(Q17=1,1,IF(Q17=2,2,IF(Q17=3,3,IF(Q17=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" ref="AN17:AN20" si="14">IF(R17=1,1,IF(R17=2,2,IF(R17=3,3,IF(R17=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <f>IF(W17=1,1,0)+IF(X17=1,1,0)+IF(Y17=1,1,0)+IF(AB17=1,1,0)+IF(AC17=1,1,0)+IF(AD17=1,1,0)+IF(AG17=1,1,0)+IF(AH17=1,1,0)+IF(AI17=1,1,0)+IF(AL17=1,1,0)+IF(AM17=1,1,0)+IF(AN17=1,1,0)+IF(AQ17=1,1,0)+IF(AR17=1,1,0)+IF(AS17=1,1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <f>IF(W17=2,1,0)+IF(X17=2,1,0)+IF(Y17=2,1,0)+IF(AB17=2,1,0)+IF(AC17=2,1,0)+IF(AD17=2,1,0)+IF(AG17=2,1,0)+IF(AH17=2,1,0)+IF(AI17=2,1,0)+IF(AL17=2,1,0)+IF(AM17=2,1,0)+IF(AN17=2,1,0)+IF(AQ17=2,1,0)+IF(AR17=2,1,0)+IF(AS17=2,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <f>IF(X17=3,1,0)+IF(Y17=3,1,0)+IF(W17=3,1,0)+IF(AC17=3,1,0)+IF(AD17=3,1,0)+IF(AB17=3,1,0)+IF(AH17=3,1,0)+IF(AI17=3,1,0)+IF(AG17=3,1,0)+IF(AM17=3,1,0)+IF(AN17=3,1,0)+IF(AL17=3,1,0)+IF(AR17=3,1,0)+IF(AS17=3,1,0)+IF(AQ17=3,1,0)</f>
         <v>1</v>
       </c>
       <c r="AX17">
-        <f t="shared" ref="AX17:AX19" si="15">IF(Z17=1,1,0)+IF(AA17=1,1,0)+IF(AB17=1,1,0)+IF(AE17=1,1,0)+IF(AF17=1,1,0)+IF(AG17=1,1,0)+IF(AJ17=1,1,0)+IF(AK17=1,1,0)+IF(AL17=1,1,0)+IF(AO17=1,1,0)+IF(AP17=1,1,0)+IF(AQ17=1,1,0)+IF(AT17=1,1,0)+IF(AU17=1,1,0)+IF(AV17=1,1,0)</f>
-        <v>3</v>
+        <f>IF(Y17=4,1,0)+IF(W17=4,1,0)+IF(X17=4,1,0)+IF(AD17=4,1,0)+IF(AB17=4,1,0)+IF(AC17=4,1,0)+IF(AI17=4,1,0)+IF(AG17=4,1,0)+IF(AH17=4,1,0)+IF(AN17=4,1,0)+IF(AL17=4,1,0)+IF(AM17=4,1,0)+IF(AS17=4,1,0)+IF(AQ17=4,1,0)+IF(AR17=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <f t="shared" ref="AY17:AY19" si="16">IF(Z17=2,1,0)+IF(AA17=2,1,0)+IF(AB17=2,1,0)+IF(AE17=2,1,0)+IF(AF17=2,1,0)+IF(AG17=2,1,0)+IF(AJ17=2,1,0)+IF(AK17=2,1,0)+IF(AL17=2,1,0)+IF(AO17=2,1,0)+IF(AP17=2,1,0)+IF(AQ17=2,1,0)+IF(AT17=2,1,0)+IF(AU17=2,1,0)+IF(AV17=2,1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="AZ17">
-        <f>IF(AA17=3,1,0)+IF(AB17=3,1,0)+IF(Z17=3,1,0)+IF(AF17=3,1,0)+IF(AG17=3,1,0)+IF(AE17=3,1,0)+IF(AK17=3,1,0)+IF(AL17=3,1,0)+IF(AJ17=3,1,0)+IF(AP17=3,1,0)+IF(AQ17=3,1,0)+IF(AO17=3,1,0)+IF(AU17=3,1,0)+IF(AV17=3,1,0)+IF(AT17=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA17">
-        <f>IF(AB17=4,1,0)+IF(Z17=4,1,0)+IF(AA17=4,1,0)+IF(AG17=4,1,0)+IF(AE17=4,1,0)+IF(AF17=4,1,0)+IF(AL17=4,1,0)+IF(AJ17=4,1,0)+IF(AK17=4,1,0)+IF(AQ17=4,1,0)+IF(AO17=4,1,0)+IF(AP17=4,1,0)+IF(AV17=4,1,0)+IF(AT17=4,1,0)+IF(AU17=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <f t="shared" ref="BB17:BB19" si="17">SUM(AX17:BA17)</f>
+        <f t="shared" ref="AY17:AY19" si="15">SUM(AU17:AX17)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>1</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="42">
+        <v>3</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="F18" s="62">
         <v>4</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="11">
+        <v>2</v>
+      </c>
       <c r="H18" s="22"/>
-      <c r="K18" s="36">
-        <v>2</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="L18" s="61">
+        <v>4</v>
+      </c>
+      <c r="M18" s="37">
+        <v>2</v>
+      </c>
       <c r="P18" s="19"/>
-      <c r="Q18" s="32"/>
+      <c r="Q18" s="12">
+        <v>1</v>
+      </c>
       <c r="R18" s="22"/>
       <c r="S18" t="s">
         <v>83</v>
       </c>
+      <c r="U18">
+        <f>SUM(A18:S18)</f>
+        <v>17</v>
+      </c>
+      <c r="W18">
+        <f>IF(A18=1,1,IF(A18=2,2,IF(A18=3,3,IF(A18=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="X18">
-        <f>SUM(A18:S18)</f>
-        <v>7</v>
-      </c>
-      <c r="Z18">
-        <f>IF(A18=1,1,IF(A18=2,2,IF(A18=3,3,IF(A18=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AA18">
         <f>IF(B18=1,1,IF(B18=2,2,IF(B18=3,3,IF(B18=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <f>IF(C18=1,1,IF(C18=2,2,IF(C18=3,3,IF(C18=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>IF(C18=1,1,IF(C18=2,2,IF(C18=3,3,IF(C18=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE18">
         <f>IF(F18=1,1,IF(F18=2,2,IF(F18=3,3,IF(F18=4,4,0))))</f>
         <v>4</v>
       </c>
-      <c r="AF18">
+      <c r="AC18">
         <f>IF(G18=1,1,IF(G18=2,2,IF(G18=3,3,IF(G18=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <f>IF(H18=1,1,IF(H18=2,2,IF(H18=3,3,IF(H18=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AG18">
-        <f>IF(H18=1,1,IF(H18=2,2,IF(H18=3,3,IF(H18=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <f>IF(K18=1,1,IF(K18=2,2,IF(K18=3,3,IF(K18=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AK18">
+        <f>IF(L19=1,1,IF(L19=2,2,IF(L19=3,3,IF(L19=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH18">
         <f>IF(L18=1,1,IF(L18=2,2,IF(L18=3,3,IF(L18=4,4,0))))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AI18" t="e">
+        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
+        <v>#REF!</v>
       </c>
       <c r="AL18">
-        <f>IF(M18=1,1,IF(M18=2,2,IF(M18=3,3,IF(M18=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO18">
         <f>IF(P18=1,1,IF(P18=2,2,IF(P18=3,3,IF(P18=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP18">
-        <f>IF(Q18=1,1,IF(Q18=2,2,IF(Q18=3,3,IF(Q18=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <f>IF(R18=1,1,IF(R18=2,2,IF(R18=3,3,IF(R18=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AX18">
+      <c r="AM18">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" t="e">
+        <f>IF(W18=1,1,0)+IF(X18=1,1,0)+IF(Y18=1,1,0)+IF(AB18=1,1,0)+IF(AC18=1,1,0)+IF(AD18=1,1,0)+IF(AG18=1,1,0)+IF(AH18=1,1,0)+IF(AI18=1,1,0)+IF(AL18=1,1,0)+IF(AM18=1,1,0)+IF(AN18=1,1,0)+IF(AQ18=1,1,0)+IF(AR18=1,1,0)+IF(AS18=1,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV18" t="e">
+        <f>IF(W18=2,1,0)+IF(X18=2,1,0)+IF(Y18=2,1,0)+IF(AB18=2,1,0)+IF(AC18=2,1,0)+IF(AD18=2,1,0)+IF(AG18=2,1,0)+IF(AH18=2,1,0)+IF(AI18=2,1,0)+IF(AL18=2,1,0)+IF(AM18=2,1,0)+IF(AN18=2,1,0)+IF(AQ18=2,1,0)+IF(AR18=2,1,0)+IF(AS18=2,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW18" t="e">
+        <f>IF(X18=3,1,0)+IF(Y18=3,1,0)+IF(W18=3,1,0)+IF(AC18=3,1,0)+IF(AD18=3,1,0)+IF(AB18=3,1,0)+IF(AH18=3,1,0)+IF(AI18=3,1,0)+IF(AG18=3,1,0)+IF(AM18=3,1,0)+IF(AN18=3,1,0)+IF(AL18=3,1,0)+IF(AR18=3,1,0)+IF(AS18=3,1,0)+IF(AQ18=3,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX18" t="e">
+        <f>IF(Y18=4,1,0)+IF(W18=4,1,0)+IF(X18=4,1,0)+IF(AD18=4,1,0)+IF(AB18=4,1,0)+IF(AC18=4,1,0)+IF(AI18=4,1,0)+IF(AG18=4,1,0)+IF(AH18=4,1,0)+IF(AN18=4,1,0)+IF(AL18=4,1,0)+IF(AM18=4,1,0)+IF(AS18=4,1,0)+IF(AQ18=4,1,0)+IF(AR18=4,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY18" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AZ18">
-        <f>IF(AA18=3,1,0)+IF(AB18=3,1,0)+IF(Z18=3,1,0)+IF(AF18=3,1,0)+IF(AG18=3,1,0)+IF(AE18=3,1,0)+IF(AK18=3,1,0)+IF(AL18=3,1,0)+IF(AJ18=3,1,0)+IF(AP18=3,1,0)+IF(AQ18=3,1,0)+IF(AO18=3,1,0)+IF(AU18=3,1,0)+IF(AV18=3,1,0)+IF(AT18=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <f t="shared" ref="BA18:BA19" si="18">IF(AB18=4,1,0)+IF(Z18=4,1,0)+IF(AA18=4,1,0)+IF(AG18=4,1,0)+IF(AE18=4,1,0)+IF(AF18=4,1,0)+IF(AL18=4,1,0)+IF(AJ18=4,1,0)+IF(AK18=4,1,0)+IF(AQ18=4,1,0)+IF(AO18=4,1,0)+IF(AP18=4,1,0)+IF(AV18=4,1,0)+IF(AT18=4,1,0)+IF(AU18=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB18">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="23"/>
@@ -16497,159 +16541,160 @@
       <c r="K19" s="77">
         <v>3</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="36">
+        <v>2</v>
+      </c>
       <c r="M19" s="23"/>
-      <c r="P19" s="20"/>
       <c r="Q19" s="78">
         <v>4</v>
       </c>
       <c r="R19" s="13">
         <v>1</v>
       </c>
+      <c r="U19">
+        <f>SUM(A19:S19)</f>
+        <v>13</v>
+      </c>
+      <c r="W19">
+        <f>IF(A19=1,1,IF(A19=2,2,IF(A19=3,3,IF(A19=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X19">
-        <f>SUM(A19:S19)</f>
-        <v>11</v>
-      </c>
-      <c r="Z19">
-        <f>IF(A19=1,1,IF(A19=2,2,IF(A19=3,3,IF(A19=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA19">
         <f>IF(B19=1,1,IF(B19=2,2,IF(B19=3,3,IF(B19=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y19">
+        <f>IF(C19=1,1,IF(C19=2,2,IF(C19=3,3,IF(C19=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB19">
-        <f>IF(C19=1,1,IF(C19=2,2,IF(C19=3,3,IF(C19=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE19">
         <f>IF(F19=1,1,IF(F19=2,2,IF(F19=3,3,IF(F19=4,4,0))))</f>
         <v>3</v>
       </c>
-      <c r="AF19">
+      <c r="AC19">
         <f>IF(G19=1,1,IF(G19=2,2,IF(G19=3,3,IF(G19=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD19">
+        <f>IF(H19=1,1,IF(H19=2,2,IF(H19=3,3,IF(H19=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG19">
-        <f>IF(H19=1,1,IF(H19=2,2,IF(H19=3,3,IF(H19=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19">
         <f>IF(K19=1,1,IF(K19=2,2,IF(K19=3,3,IF(K19=4,4,0))))</f>
         <v>3</v>
       </c>
-      <c r="AK19">
-        <f>IF(L19=1,1,IF(L19=2,2,IF(L19=3,3,IF(L19=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AL19">
+      <c r="AH19" t="e">
+        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI19">
         <f>IF(M19=1,1,IF(M19=2,2,IF(M19=3,3,IF(M19=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AO19">
-        <f>IF(P19=1,1,IF(P19=2,2,IF(P19=3,3,IF(P19=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <f>IF(Q19=1,1,IF(Q19=2,2,IF(Q19=3,3,IF(Q19=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AQ19">
-        <f>IF(R19=1,1,IF(R19=2,2,IF(R19=3,3,IF(R19=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AX19">
+      <c r="AL19" t="e">
+        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AU19" t="e">
+        <f>IF(W19=1,1,0)+IF(X19=1,1,0)+IF(Y19=1,1,0)+IF(AB19=1,1,0)+IF(AC19=1,1,0)+IF(AD19=1,1,0)+IF(AG19=1,1,0)+IF(AH19=1,1,0)+IF(AI19=1,1,0)+IF(AL19=1,1,0)+IF(AM19=1,1,0)+IF(AN19=1,1,0)+IF(AQ19=1,1,0)+IF(AR19=1,1,0)+IF(AS19=1,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV19" t="e">
+        <f>IF(W19=2,1,0)+IF(X19=2,1,0)+IF(Y19=2,1,0)+IF(AB19=2,1,0)+IF(AC19=2,1,0)+IF(AD19=2,1,0)+IF(AG19=2,1,0)+IF(AH19=2,1,0)+IF(AI19=2,1,0)+IF(AL19=2,1,0)+IF(AM19=2,1,0)+IF(AN19=2,1,0)+IF(AQ19=2,1,0)+IF(AR19=2,1,0)+IF(AS19=2,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW19" t="e">
+        <f>IF(X19=3,1,0)+IF(Y19=3,1,0)+IF(W19=3,1,0)+IF(AC19=3,1,0)+IF(AD19=3,1,0)+IF(AB19=3,1,0)+IF(AH19=3,1,0)+IF(AI19=3,1,0)+IF(AG19=3,1,0)+IF(AM19=3,1,0)+IF(AN19=3,1,0)+IF(AL19=3,1,0)+IF(AR19=3,1,0)+IF(AS19=3,1,0)+IF(AQ19=3,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX19" t="e">
+        <f>IF(Y19=4,1,0)+IF(W19=4,1,0)+IF(X19=4,1,0)+IF(AD19=4,1,0)+IF(AB19=4,1,0)+IF(AC19=4,1,0)+IF(AI19=4,1,0)+IF(AG19=4,1,0)+IF(AH19=4,1,0)+IF(AN19=4,1,0)+IF(AL19=4,1,0)+IF(AM19=4,1,0)+IF(AS19=4,1,0)+IF(AQ19=4,1,0)+IF(AR19=4,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY19" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <f>IF(AA19=3,1,0)+IF(AB19=3,1,0)+IF(Z19=3,1,0)+IF(AF19=3,1,0)+IF(AG19=3,1,0)+IF(AE19=3,1,0)+IF(AK19=3,1,0)+IF(AL19=3,1,0)+IF(AJ19=3,1,0)+IF(AP19=3,1,0)+IF(AQ19=3,1,0)+IF(AO19=3,1,0)+IF(AU19=3,1,0)+IF(AV19=3,1,0)+IF(AT19=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA19">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="BB19">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="Z20">
-        <f>SUM(Z2:Z19)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <f>SUM(W2:W19)</f>
         <v>9</v>
       </c>
-      <c r="AA20">
-        <f>SUM(AA2:AA19)</f>
-        <v>5</v>
+      <c r="X20">
+        <f>SUM(X2:X19)</f>
+        <v>10</v>
+      </c>
+      <c r="Y20">
+        <f>SUM(Y2:Y19)</f>
+        <v>12</v>
       </c>
       <c r="AB20">
         <f>SUM(AB2:AB19)</f>
-        <v>12</v>
-      </c>
-      <c r="AE20">
-        <f>SUM(AE2:AE19)</f>
         <v>13</v>
       </c>
-      <c r="AF20">
-        <f>SUM(AF2:AF19)</f>
-        <v>7</v>
+      <c r="AC20">
+        <f>SUM(AC2:AC19)</f>
+        <v>14</v>
+      </c>
+      <c r="AD20">
+        <f>SUM(AD2:AD19)</f>
+        <v>11</v>
       </c>
       <c r="AG20">
         <f>SUM(AG2:AG19)</f>
-        <v>9</v>
-      </c>
-      <c r="AJ20">
-        <f>SUM(AJ2:AJ19)</f>
-        <v>13</v>
-      </c>
-      <c r="AK20">
-        <f>SUM(AK2:AK19)</f>
-        <v>9</v>
-      </c>
-      <c r="AL20">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="e">
+        <f>SUM(AH2:AH19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI20" t="e">
+        <f>SUM(AI2:AI19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AL20" t="e">
         <f>SUM(AL2:AL19)</f>
-        <v>12</v>
-      </c>
-      <c r="AO20">
-        <f>SUM(AO2:AO19)</f>
-        <v>9</v>
-      </c>
-      <c r="AP20">
-        <f>SUM(AP2:AP19)</f>
-        <v>21</v>
-      </c>
-      <c r="AQ20">
-        <f>SUM(AQ2:AQ19)</f>
-        <v>13</v>
-      </c>
-      <c r="AX20">
-        <f>SUM(AX17:AX19)</f>
-        <v>5</v>
-      </c>
-      <c r="AY20">
-        <f t="shared" ref="AY20:BA20" si="19">SUM(AY17:AY19)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ20">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="BA20">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BB20">
-        <f>SUM(AX20:BA20)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+      <c r="AM20">
+        <f>SUM(AM2:AM19)</f>
+        <v>30</v>
+      </c>
+      <c r="AN20" t="e">
+        <f>SUM(AN2:AN19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU20" t="e">
+        <f>SUM(AU17:AU19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AV20" t="e">
+        <f t="shared" ref="AV20:AX20" si="16">SUM(AV17:AV19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW20" t="e">
+        <f t="shared" si="16"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AX20" t="e">
+        <f t="shared" si="16"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AY20" t="e">
+        <f>SUM(AU20:AX20)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -16659,20 +16704,20 @@
       <c r="K22" t="s">
         <v>46</v>
       </c>
-      <c r="AX22" s="26">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="27">
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="27">
-        <v>3</v>
-      </c>
-      <c r="BA22" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AU22" s="26">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="27">
+        <v>2</v>
+      </c>
+      <c r="AW22" s="27">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>1</v>
       </c>
@@ -16690,174 +16735,176 @@
       <c r="M23" s="57">
         <v>1</v>
       </c>
-      <c r="X23">
+      <c r="U23">
         <f>SUM(A23:S23)</f>
         <v>8</v>
       </c>
-      <c r="Z23">
+      <c r="W23">
         <f>IF(A23=1,1,IF(A23=2,2,IF(A23=3,3,IF(A23=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AA23">
+      <c r="X23">
         <f>IF(B23=1,1,IF(B23=2,2,IF(B23=3,3,IF(B23=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y23">
+        <f>IF(C23=1,1,IF(C23=2,2,IF(C23=3,3,IF(C23=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB23">
-        <f>IF(C23=1,1,IF(C23=2,2,IF(C23=3,3,IF(C23=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE23">
         <f>IF(F23=1,1,IF(F23=2,2,IF(F23=3,3,IF(F23=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF23">
+      <c r="AC23">
         <f>IF(G23=1,1,IF(G23=2,2,IF(G23=3,3,IF(G23=4,4,0))))</f>
         <v>4</v>
       </c>
+      <c r="AD23">
+        <f>IF(H23=1,1,IF(H23=2,2,IF(H23=3,3,IF(H23=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="AG23">
-        <f>IF(H23=1,1,IF(H23=2,2,IF(H23=3,3,IF(H23=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ23">
         <f>IF(K23=1,1,IF(K23=2,2,IF(K23=3,3,IF(K23=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK23">
+      <c r="AH23">
         <f>IF(L23=1,1,IF(L23=2,2,IF(L23=3,3,IF(L23=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AI23">
+        <f>IF(M23=1,1,IF(M23=2,2,IF(M23=3,3,IF(M23=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AL23">
-        <f>IF(M23=1,1,IF(M23=2,2,IF(M23=3,3,IF(M23=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AO23">
         <f>IF(P24=1,1,IF(P24=2,2,IF(P24=3,3,IF(P24=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP23">
+      <c r="AM23">
         <f>IF(Q23=1,1,IF(Q23=2,2,IF(Q23=3,3,IF(Q23=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ23">
+      <c r="AN23">
         <f>IF(R23=1,1,IF(R23=2,2,IF(R23=3,3,IF(R23=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU23">
+        <f>IF(W23=1,1,0)+IF(X23=1,1,0)+IF(Y23=1,1,0)+IF(AB23=1,1,0)+IF(AC23=1,1,0)+IF(AD23=1,1,0)+IF(AG23=1,1,0)+IF(AH23=1,1,0)+IF(AI23=1,1,0)+IF(AL23=1,1,0)+IF(AM23=1,1,0)+IF(AN23=1,1,0)+IF(AQ23=1,1,0)+IF(AR23=1,1,0)+IF(AS23=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <f>IF(W23=2,1,0)+IF(X23=2,1,0)+IF(Y23=2,1,0)+IF(AB23=2,1,0)+IF(AC23=2,1,0)+IF(AD23=2,1,0)+IF(AG23=2,1,0)+IF(AH23=2,1,0)+IF(AI23=2,1,0)+IF(AL23=2,1,0)+IF(AM23=2,1,0)+IF(AN23=2,1,0)+IF(AQ23=2,1,0)+IF(AR23=2,1,0)+IF(AS23=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <f>IF(X23=3,1,0)+IF(Y23=3,1,0)+IF(W23=3,1,0)+IF(AC23=3,1,0)+IF(AD23=3,1,0)+IF(AB23=3,1,0)+IF(AH23=3,1,0)+IF(AI23=3,1,0)+IF(AG23=3,1,0)+IF(AM23=3,1,0)+IF(AN23=3,1,0)+IF(AL23=3,1,0)+IF(AR23=3,1,0)+IF(AS23=3,1,0)+IF(AQ23=3,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AX23">
-        <f>IF(Z23=1,1,0)+IF(AA23=1,1,0)+IF(AB23=1,1,0)+IF(AE23=1,1,0)+IF(AF23=1,1,0)+IF(AG23=1,1,0)+IF(AJ23=1,1,0)+IF(AK23=1,1,0)+IF(AL23=1,1,0)+IF(AO23=1,1,0)+IF(AP23=1,1,0)+IF(AQ23=1,1,0)+IF(AT23=1,1,0)+IF(AU23=1,1,0)+IF(AV23=1,1,0)</f>
-        <v>2</v>
+        <f>IF(Y23=4,1,0)+IF(W23=4,1,0)+IF(X23=4,1,0)+IF(AD23=4,1,0)+IF(AB23=4,1,0)+IF(AC23=4,1,0)+IF(AI23=4,1,0)+IF(AG23=4,1,0)+IF(AH23=4,1,0)+IF(AN23=4,1,0)+IF(AL23=4,1,0)+IF(AM23=4,1,0)+IF(AS23=4,1,0)+IF(AQ23=4,1,0)+IF(AR23=4,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AY23">
-        <f>IF(Z23=2,1,0)+IF(AA23=2,1,0)+IF(AB23=2,1,0)+IF(AE23=2,1,0)+IF(AF23=2,1,0)+IF(AG23=2,1,0)+IF(AJ23=2,1,0)+IF(AK23=2,1,0)+IF(AL23=2,1,0)+IF(AO23=2,1,0)+IF(AP23=2,1,0)+IF(AQ23=2,1,0)+IF(AT23=2,1,0)+IF(AU23=2,1,0)+IF(AV23=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ23">
-        <f>IF(AA23=3,1,0)+IF(AB23=3,1,0)+IF(Z23=3,1,0)+IF(AF23=3,1,0)+IF(AG23=3,1,0)+IF(AE23=3,1,0)+IF(AK23=3,1,0)+IF(AL23=3,1,0)+IF(AJ23=3,1,0)+IF(AP23=3,1,0)+IF(AQ23=3,1,0)+IF(AO23=3,1,0)+IF(AU23=3,1,0)+IF(AV23=3,1,0)+IF(AT23=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <f>IF(AB23=4,1,0)+IF(Z23=4,1,0)+IF(AA23=4,1,0)+IF(AG23=4,1,0)+IF(AE23=4,1,0)+IF(AF23=4,1,0)+IF(AL23=4,1,0)+IF(AJ23=4,1,0)+IF(AK23=4,1,0)+IF(AQ23=4,1,0)+IF(AO23=4,1,0)+IF(AP23=4,1,0)+IF(AV23=4,1,0)+IF(AT23=4,1,0)+IF(AU23=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" ref="BB23:BB25" si="20">SUM(AX23:BA23)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AY23:AY25" si="17">SUM(AU23:AX23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="63">
         <v>3</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="33">
+        <v>2</v>
+      </c>
       <c r="C24" s="22"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="6" t="s">
-        <v>80</v>
+      <c r="G24" s="63">
+        <v>3</v>
       </c>
       <c r="H24" s="22"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="73">
-        <v>2</v>
+      <c r="L24" s="57">
+        <v>1</v>
+      </c>
+      <c r="M24" s="59">
+        <v>4</v>
       </c>
       <c r="P24" t="s">
         <v>39</v>
       </c>
+      <c r="U24">
+        <f>SUM(A24:S24)</f>
+        <v>13</v>
+      </c>
+      <c r="W24">
+        <f>IF(A24=1,1,IF(A24=2,2,IF(A24=3,3,IF(A24=4,4,0))))</f>
+        <v>3</v>
+      </c>
       <c r="X24">
-        <f>SUM(A24:S24)</f>
+        <f>IF(B24=1,1,IF(B24=2,2,IF(B24=3,3,IF(B24=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f>IF(C24=1,1,IF(C24=2,2,IF(C24=3,3,IF(C24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f>IF(F24=1,1,IF(F24=2,2,IF(F24=3,3,IF(F24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f>IF(G24=1,1,IF(G24=2,2,IF(G24=3,3,IF(G24=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <f>IF(H24=1,1,IF(H24=2,2,IF(H24=3,3,IF(H24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f>IF(K24=1,1,IF(K24=2,2,IF(K24=3,3,IF(K24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f>IF(L24=1,1,IF(L24=2,2,IF(L24=3,3,IF(L24=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <f>IF(M24=1,1,IF(M24=2,2,IF(M24=3,3,IF(M24=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <f>IF(P25=1,1,IF(P25=2,2,IF(P25=3,3,IF(P25=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <f>IF(Q24=1,1,IF(Q24=2,2,IF(Q24=3,3,IF(Q24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f>IF(R24=1,1,IF(R24=2,2,IF(R24=3,3,IF(R24=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <f>IF(W24=1,1,0)+IF(X24=1,1,0)+IF(Y24=1,1,0)+IF(AB24=1,1,0)+IF(AC24=1,1,0)+IF(AD24=1,1,0)+IF(AG24=1,1,0)+IF(AH24=1,1,0)+IF(AI24=1,1,0)+IF(AL24=1,1,0)+IF(AM24=1,1,0)+IF(AN24=1,1,0)+IF(AQ24=1,1,0)+IF(AR24=1,1,0)+IF(AS24=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <f>IF(W24=2,1,0)+IF(X24=2,1,0)+IF(Y24=2,1,0)+IF(AB24=2,1,0)+IF(AC24=2,1,0)+IF(AD24=2,1,0)+IF(AG24=2,1,0)+IF(AH24=2,1,0)+IF(AI24=2,1,0)+IF(AL24=2,1,0)+IF(AM24=2,1,0)+IF(AN24=2,1,0)+IF(AQ24=2,1,0)+IF(AR24=2,1,0)+IF(AS24=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <f>IF(X24=3,1,0)+IF(Y24=3,1,0)+IF(W24=3,1,0)+IF(AC24=3,1,0)+IF(AD24=3,1,0)+IF(AB24=3,1,0)+IF(AH24=3,1,0)+IF(AI24=3,1,0)+IF(AG24=3,1,0)+IF(AM24=3,1,0)+IF(AN24=3,1,0)+IF(AL24=3,1,0)+IF(AR24=3,1,0)+IF(AS24=3,1,0)+IF(AQ24=3,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX24">
+        <f>IF(Y24=4,1,0)+IF(W24=4,1,0)+IF(X24=4,1,0)+IF(AD24=4,1,0)+IF(AB24=4,1,0)+IF(AC24=4,1,0)+IF(AI24=4,1,0)+IF(AG24=4,1,0)+IF(AH24=4,1,0)+IF(AN24=4,1,0)+IF(AL24=4,1,0)+IF(AM24=4,1,0)+IF(AS24=4,1,0)+IF(AQ24=4,1,0)+IF(AR24=4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="Z24">
-        <f>IF(A24=1,1,IF(A24=2,2,IF(A24=3,3,IF(A24=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <f>IF(B24=1,1,IF(B24=2,2,IF(B24=3,3,IF(B24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f>IF(C24=1,1,IF(C24=2,2,IF(C24=3,3,IF(C24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <f>IF(F24=1,1,IF(F24=2,2,IF(F24=3,3,IF(F24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <f>IF(G24=1,1,IF(G24=2,2,IF(G24=3,3,IF(G24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <f>IF(H24=1,1,IF(H24=2,2,IF(H24=3,3,IF(H24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <f>IF(K24=1,1,IF(K24=2,2,IF(K24=3,3,IF(K24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <f>IF(L24=1,1,IF(L24=2,2,IF(L24=3,3,IF(L24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <f>IF(M24=1,1,IF(M24=2,2,IF(M24=3,3,IF(M24=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO24" t="e">
-        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP24">
-        <f>IF(Q24=1,1,IF(Q24=2,2,IF(Q24=3,3,IF(Q24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <f>IF(R24=1,1,IF(R24=2,2,IF(R24=3,3,IF(R24=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AX24" t="e">
-        <f>IF(Z24=1,1,0)+IF(AA24=1,1,0)+IF(AB24=1,1,0)+IF(AE24=1,1,0)+IF(AF24=1,1,0)+IF(AG24=1,1,0)+IF(AJ24=1,1,0)+IF(AK24=1,1,0)+IF(AL24=1,1,0)+IF(AO24=1,1,0)+IF(AP24=1,1,0)+IF(AQ24=1,1,0)+IF(AT24=1,1,0)+IF(AU24=1,1,0)+IF(AV24=1,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY24" t="e">
-        <f t="shared" ref="AY24:AY25" si="21">IF(Z24=2,1,0)+IF(AA24=2,1,0)+IF(AB24=2,1,0)+IF(AE24=2,1,0)+IF(AF24=2,1,0)+IF(AG24=2,1,0)+IF(AJ24=2,1,0)+IF(AK24=2,1,0)+IF(AL24=2,1,0)+IF(AO24=2,1,0)+IF(AP24=2,1,0)+IF(AQ24=2,1,0)+IF(AT24=2,1,0)+IF(AU24=2,1,0)+IF(AV24=2,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ24" t="e">
-        <f>IF(AA24=3,1,0)+IF(AB24=3,1,0)+IF(Z24=3,1,0)+IF(AF24=3,1,0)+IF(AG24=3,1,0)+IF(AE24=3,1,0)+IF(AK24=3,1,0)+IF(AL24=3,1,0)+IF(AJ24=3,1,0)+IF(AP24=3,1,0)+IF(AQ24=3,1,0)+IF(AO24=3,1,0)+IF(AU24=3,1,0)+IF(AV24=3,1,0)+IF(AT24=3,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA24" t="e">
-        <f t="shared" ref="BA24:BA25" si="22">IF(AB24=4,1,0)+IF(Z24=4,1,0)+IF(AA24=4,1,0)+IF(AG24=4,1,0)+IF(AE24=4,1,0)+IF(AF24=4,1,0)+IF(AL24=4,1,0)+IF(AJ24=4,1,0)+IF(AK24=4,1,0)+IF(AQ24=4,1,0)+IF(AO24=4,1,0)+IF(AP24=4,1,0)+IF(AV24=4,1,0)+IF(AT24=4,1,0)+IF(AU24=4,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB24" t="e">
-        <f t="shared" si="20"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>2</v>
       </c>
@@ -16868,109 +16915,109 @@
         <v>1</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="K25" s="68">
-        <v>1</v>
+      <c r="K25" s="73">
+        <v>2</v>
       </c>
       <c r="L25" s="49">
         <v>3</v>
       </c>
       <c r="M25" s="23"/>
+      <c r="U25">
+        <f>SUM(A25:S25)</f>
+        <v>8</v>
+      </c>
+      <c r="W25">
+        <f>IF(A25=1,1,IF(A25=2,2,IF(A25=3,3,IF(A25=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="X25">
-        <f>SUM(A25:S25)</f>
-        <v>7</v>
-      </c>
-      <c r="Z25">
-        <f>IF(A25=1,1,IF(A25=2,2,IF(A25=3,3,IF(A25=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AA25">
         <f>IF(B25=1,1,IF(B25=2,2,IF(B25=3,3,IF(B25=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y25">
+        <f>IF(C25=1,1,IF(C25=2,2,IF(C25=3,3,IF(C25=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB25">
-        <f>IF(C25=1,1,IF(C25=2,2,IF(C25=3,3,IF(C25=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE25">
         <f>IF(F25=1,1,IF(F25=2,2,IF(F25=3,3,IF(F25=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF25">
+      <c r="AC25">
         <f>IF(G25=1,1,IF(G25=2,2,IF(G25=3,3,IF(G25=4,4,0))))</f>
         <v>1</v>
       </c>
+      <c r="AD25">
+        <f>IF(H25=1,1,IF(H25=2,2,IF(H25=3,3,IF(H25=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG25">
-        <f>IF(H25=1,1,IF(H25=2,2,IF(H25=3,3,IF(H25=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25">
         <f>IF(K25=1,1,IF(K25=2,2,IF(K25=3,3,IF(K25=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AK25">
+        <v>2</v>
+      </c>
+      <c r="AH25">
         <f>IF(L25=1,1,IF(L25=2,2,IF(L25=3,3,IF(L25=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AI25">
+        <f>IF(M25=1,1,IF(M25=2,2,IF(M25=3,3,IF(M25=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AL25">
-        <f>IF(M25=1,1,IF(M25=2,2,IF(M25=3,3,IF(M25=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <f>IF(P25=1,1,IF(P25=2,2,IF(P25=3,3,IF(P25=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AP25">
+        <f>IF(P26=1,1,IF(P26=2,2,IF(P26=3,3,IF(P26=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <f>IF(Q25=1,1,IF(Q25=2,2,IF(Q25=3,3,IF(Q25=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ25">
+      <c r="AN25">
         <f>IF(R25=1,1,IF(R25=2,2,IF(R25=3,3,IF(R25=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU25">
+        <f>IF(W25=1,1,0)+IF(X25=1,1,0)+IF(Y25=1,1,0)+IF(AB25=1,1,0)+IF(AC25=1,1,0)+IF(AD25=1,1,0)+IF(AG25=1,1,0)+IF(AH25=1,1,0)+IF(AI25=1,1,0)+IF(AL25=1,1,0)+IF(AM25=1,1,0)+IF(AN25=1,1,0)+IF(AQ25=1,1,0)+IF(AR25=1,1,0)+IF(AS25=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <f>IF(W25=2,1,0)+IF(X25=2,1,0)+IF(Y25=2,1,0)+IF(AB25=2,1,0)+IF(AC25=2,1,0)+IF(AD25=2,1,0)+IF(AG25=2,1,0)+IF(AH25=2,1,0)+IF(AI25=2,1,0)+IF(AL25=2,1,0)+IF(AM25=2,1,0)+IF(AN25=2,1,0)+IF(AQ25=2,1,0)+IF(AR25=2,1,0)+IF(AS25=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <f>IF(X25=3,1,0)+IF(Y25=3,1,0)+IF(W25=3,1,0)+IF(AC25=3,1,0)+IF(AD25=3,1,0)+IF(AB25=3,1,0)+IF(AH25=3,1,0)+IF(AI25=3,1,0)+IF(AG25=3,1,0)+IF(AM25=3,1,0)+IF(AN25=3,1,0)+IF(AL25=3,1,0)+IF(AR25=3,1,0)+IF(AS25=3,1,0)+IF(AQ25=3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AX25">
-        <f>IF(Z25=1,1,0)+IF(AA25=1,1,0)+IF(AB25=1,1,0)+IF(AE25=1,1,0)+IF(AF25=1,1,0)+IF(AG25=1,1,0)+IF(AJ25=1,1,0)+IF(AK25=1,1,0)+IF(AL25=1,1,0)+IF(AO25=1,1,0)+IF(AP25=1,1,0)+IF(AQ25=1,1,0)+IF(AT25=1,1,0)+IF(AU25=1,1,0)+IF(AV25=1,1,0)</f>
-        <v>2</v>
+        <f>IF(Y25=4,1,0)+IF(W25=4,1,0)+IF(X25=4,1,0)+IF(AD25=4,1,0)+IF(AB25=4,1,0)+IF(AC25=4,1,0)+IF(AI25=4,1,0)+IF(AG25=4,1,0)+IF(AH25=4,1,0)+IF(AN25=4,1,0)+IF(AL25=4,1,0)+IF(AM25=4,1,0)+IF(AS25=4,1,0)+IF(AQ25=4,1,0)+IF(AR25=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AZ25">
-        <f>IF(AA25=3,1,0)+IF(AB25=3,1,0)+IF(Z25=3,1,0)+IF(AF25=3,1,0)+IF(AG25=3,1,0)+IF(AE25=3,1,0)+IF(AK25=3,1,0)+IF(AL25=3,1,0)+IF(AJ25=3,1,0)+IF(AP25=3,1,0)+IF(AQ25=3,1,0)+IF(AO25=3,1,0)+IF(AU25=3,1,0)+IF(AV25=3,1,0)+IF(AT25=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AX26" t="e">
-        <f>SUM(AX23:AX25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY26" t="e">
-        <f t="shared" ref="AY26:BA26" si="23">SUM(AY23:AY25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ26" t="e">
-        <f t="shared" si="23"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BA26" t="e">
-        <f t="shared" si="23"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB26" t="e">
-        <f>SUM(AX26:BA26)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU26">
+        <f>SUM(AU23:AU25)</f>
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" ref="AV26:AX26" si="18">SUM(AV23:AV25)</f>
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <f>SUM(AU26:AX26)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -16981,7 +17028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>2</v>
       </c>
@@ -16998,176 +17045,180 @@
       <c r="L28" s="58">
         <v>1</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="59">
+        <v>4</v>
+      </c>
       <c r="N28" s="7"/>
+      <c r="U28">
+        <f>SUM(A28:S28)</f>
+        <v>13</v>
+      </c>
+      <c r="W28">
+        <f>IF(A28=1,1,IF(A28=2,2,IF(A28=3,3,IF(A28=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="X28">
-        <f>SUM(A28:S28)</f>
-        <v>9</v>
-      </c>
-      <c r="Z28">
-        <f>IF(A28=1,1,IF(A28=2,2,IF(A28=3,3,IF(A28=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AA28">
         <f>IF(B28=1,1,IF(B28=2,2,IF(B28=3,3,IF(B28=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="Y28">
+        <f>IF(C28=1,1,IF(C28=2,2,IF(C28=3,3,IF(C28=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB28">
-        <f>IF(C28=1,1,IF(C28=2,2,IF(C28=3,3,IF(C28=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE28">
         <f>IF(F28=1,1,IF(F28=2,2,IF(F28=3,3,IF(F28=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF28">
+      <c r="AC28">
         <f>IF(G28=1,1,IF(G28=2,2,IF(G28=3,3,IF(G28=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AD28">
+        <f>IF(H28=1,1,IF(H28=2,2,IF(H28=3,3,IF(H28=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG28">
-        <f>IF(H28=1,1,IF(H28=2,2,IF(H28=3,3,IF(H28=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ28">
         <f>IF(K28=1,1,IF(K28=2,2,IF(K28=3,3,IF(K28=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK28">
+      <c r="AH28">
         <f>IF(L28=1,1,IF(L28=2,2,IF(L28=3,3,IF(L28=4,4,0))))</f>
         <v>1</v>
       </c>
+      <c r="AI28">
+        <f>IF(M28=1,1,IF(M28=2,2,IF(M28=3,3,IF(M28=4,4,0))))</f>
+        <v>4</v>
+      </c>
       <c r="AL28">
-        <f>IF(M28=1,1,IF(M28=2,2,IF(M28=3,3,IF(M28=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO28">
         <f>IF(P28=1,1,IF(P28=2,2,IF(P28=3,3,IF(P28=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP28">
+      <c r="AM28">
         <f>IF(Q28=1,1,IF(Q28=2,2,IF(Q28=3,3,IF(Q28=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ28">
+      <c r="AN28">
         <f>IF(R28=1,1,IF(R28=2,2,IF(R28=3,3,IF(R28=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU28">
+        <f>IF(W28=1,1,0)+IF(X28=1,1,0)+IF(Y28=1,1,0)+IF(AB28=1,1,0)+IF(AC28=1,1,0)+IF(AD28=1,1,0)+IF(AG28=1,1,0)+IF(AH28=1,1,0)+IF(AI28=1,1,0)+IF(AL28=1,1,0)+IF(AM28=1,1,0)+IF(AN28=1,1,0)+IF(AQ28=1,1,0)+IF(AR28=1,1,0)+IF(AS28=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <f>IF(W28=2,1,0)+IF(X28=2,1,0)+IF(Y28=2,1,0)+IF(AB28=2,1,0)+IF(AC28=2,1,0)+IF(AD28=2,1,0)+IF(AG28=2,1,0)+IF(AH28=2,1,0)+IF(AI28=2,1,0)+IF(AL28=2,1,0)+IF(AM28=2,1,0)+IF(AN28=2,1,0)+IF(AQ28=2,1,0)+IF(AR28=2,1,0)+IF(AS28=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <f>IF(X28=3,1,0)+IF(Y28=3,1,0)+IF(W28=3,1,0)+IF(AC28=3,1,0)+IF(AD28=3,1,0)+IF(AB28=3,1,0)+IF(AH28=3,1,0)+IF(AI28=3,1,0)+IF(AG28=3,1,0)+IF(AM28=3,1,0)+IF(AN28=3,1,0)+IF(AL28=3,1,0)+IF(AR28=3,1,0)+IF(AS28=3,1,0)+IF(AQ28=3,1,0)</f>
+        <v>2</v>
+      </c>
       <c r="AX28">
-        <f t="shared" ref="AX28:AX30" si="24">IF(Z28=1,1,0)+IF(AA28=1,1,0)+IF(AB28=1,1,0)+IF(AE28=1,1,0)+IF(AF28=1,1,0)+IF(AG28=1,1,0)+IF(AJ28=1,1,0)+IF(AK28=1,1,0)+IF(AL28=1,1,0)+IF(AO28=1,1,0)+IF(AP28=1,1,0)+IF(AQ28=1,1,0)+IF(AT28=1,1,0)+IF(AU28=1,1,0)+IF(AV28=1,1,0)</f>
+        <f>IF(Y28=4,1,0)+IF(W28=4,1,0)+IF(X28=4,1,0)+IF(AD28=4,1,0)+IF(AB28=4,1,0)+IF(AC28=4,1,0)+IF(AI28=4,1,0)+IF(AG28=4,1,0)+IF(AH28=4,1,0)+IF(AN28=4,1,0)+IF(AL28=4,1,0)+IF(AM28=4,1,0)+IF(AS28=4,1,0)+IF(AQ28=4,1,0)+IF(AR28=4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AY28">
-        <f t="shared" ref="AY28:AY30" si="25">IF(Z28=2,1,0)+IF(AA28=2,1,0)+IF(AB28=2,1,0)+IF(AE28=2,1,0)+IF(AF28=2,1,0)+IF(AG28=2,1,0)+IF(AJ28=2,1,0)+IF(AK28=2,1,0)+IF(AL28=2,1,0)+IF(AO28=2,1,0)+IF(AP28=2,1,0)+IF(AQ28=2,1,0)+IF(AT28=2,1,0)+IF(AU28=2,1,0)+IF(AV28=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ28">
-        <f>IF(AA28=3,1,0)+IF(AB28=3,1,0)+IF(Z28=3,1,0)+IF(AF28=3,1,0)+IF(AG28=3,1,0)+IF(AE28=3,1,0)+IF(AK28=3,1,0)+IF(AL28=3,1,0)+IF(AJ28=3,1,0)+IF(AP28=3,1,0)+IF(AQ28=3,1,0)+IF(AO28=3,1,0)+IF(AU28=3,1,0)+IF(AV28=3,1,0)+IF(AT28=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA28">
-        <f>IF(AB28=4,1,0)+IF(Z28=4,1,0)+IF(AA28=4,1,0)+IF(AG28=4,1,0)+IF(AE28=4,1,0)+IF(AF28=4,1,0)+IF(AL28=4,1,0)+IF(AJ28=4,1,0)+IF(AK28=4,1,0)+IF(AQ28=4,1,0)+IF(AO28=4,1,0)+IF(AP28=4,1,0)+IF(AV28=4,1,0)+IF(AT28=4,1,0)+IF(AU28=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <f t="shared" ref="BB28:BB30" si="26">SUM(AX28:BA28)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AY28:AY30" si="19">SUM(AU28:AX28)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>1</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="33">
+        <v>2</v>
+      </c>
       <c r="C29" s="22"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="6" t="s">
-        <v>80</v>
+      <c r="G29" s="59">
+        <v>4</v>
       </c>
       <c r="H29" s="22"/>
       <c r="K29" s="73">
         <v>2</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>80</v>
+      <c r="L29" s="63">
+        <v>3</v>
       </c>
       <c r="M29" s="22"/>
       <c r="P29" t="s">
         <v>48</v>
       </c>
+      <c r="U29">
+        <f>SUM(A29:S29)</f>
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <f>IF(A29=1,1,IF(A29=2,2,IF(A29=3,3,IF(A29=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="X29">
-        <f>SUM(A29:S29)</f>
-        <v>3</v>
-      </c>
-      <c r="Z29">
-        <f>IF(A29=1,1,IF(A29=2,2,IF(A29=3,3,IF(A29=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AA29">
         <f>IF(B29=1,1,IF(B29=2,2,IF(B29=3,3,IF(B29=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <f>IF(C29=1,1,IF(C29=2,2,IF(C29=3,3,IF(C29=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f>IF(C29=1,1,IF(C29=2,2,IF(C29=3,3,IF(C29=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE29">
         <f>IF(F29=1,1,IF(F29=2,2,IF(F29=3,3,IF(F29=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF29">
+      <c r="AC29">
         <f>IF(G29=1,1,IF(G29=2,2,IF(G29=3,3,IF(G29=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AD29">
+        <f>IF(H29=1,1,IF(H29=2,2,IF(H29=3,3,IF(H29=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AG29">
-        <f>IF(H29=1,1,IF(H29=2,2,IF(H29=3,3,IF(H29=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29">
         <f>IF(K29=1,1,IF(K29=2,2,IF(K29=3,3,IF(K29=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AK29">
+      <c r="AH29">
         <f>IF(L29=1,1,IF(L29=2,2,IF(L29=3,3,IF(L29=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <f>IF(M29=1,1,IF(M29=2,2,IF(M29=3,3,IF(M29=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f>IF(M29=1,1,IF(M29=2,2,IF(M29=3,3,IF(M29=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO29">
         <f>IF(P29=1,1,IF(P29=2,2,IF(P29=3,3,IF(P29=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP29">
+      <c r="AM29">
         <f>IF(Q29=1,1,IF(Q29=2,2,IF(Q29=3,3,IF(Q29=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ29">
+      <c r="AN29">
         <f>IF(R29=1,1,IF(R29=2,2,IF(R29=3,3,IF(R29=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU29">
+        <f>IF(W29=1,1,0)+IF(X29=1,1,0)+IF(Y29=1,1,0)+IF(AB29=1,1,0)+IF(AC29=1,1,0)+IF(AD29=1,1,0)+IF(AG29=1,1,0)+IF(AH29=1,1,0)+IF(AI29=1,1,0)+IF(AL29=1,1,0)+IF(AM29=1,1,0)+IF(AN29=1,1,0)+IF(AQ29=1,1,0)+IF(AR29=1,1,0)+IF(AS29=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <f>IF(W29=2,1,0)+IF(X29=2,1,0)+IF(Y29=2,1,0)+IF(AB29=2,1,0)+IF(AC29=2,1,0)+IF(AD29=2,1,0)+IF(AG29=2,1,0)+IF(AH29=2,1,0)+IF(AI29=2,1,0)+IF(AL29=2,1,0)+IF(AM29=2,1,0)+IF(AN29=2,1,0)+IF(AQ29=2,1,0)+IF(AR29=2,1,0)+IF(AS29=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <f>IF(X29=3,1,0)+IF(Y29=3,1,0)+IF(W29=3,1,0)+IF(AC29=3,1,0)+IF(AD29=3,1,0)+IF(AB29=3,1,0)+IF(AH29=3,1,0)+IF(AI29=3,1,0)+IF(AG29=3,1,0)+IF(AM29=3,1,0)+IF(AN29=3,1,0)+IF(AL29=3,1,0)+IF(AR29=3,1,0)+IF(AS29=3,1,0)+IF(AQ29=3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AX29">
-        <f t="shared" si="24"/>
+        <f>IF(Y29=4,1,0)+IF(W29=4,1,0)+IF(X29=4,1,0)+IF(AD29=4,1,0)+IF(AB29=4,1,0)+IF(AC29=4,1,0)+IF(AI29=4,1,0)+IF(AG29=4,1,0)+IF(AH29=4,1,0)+IF(AN29=4,1,0)+IF(AL29=4,1,0)+IF(AM29=4,1,0)+IF(AS29=4,1,0)+IF(AQ29=4,1,0)+IF(AR29=4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AY29">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AZ29">
-        <f>IF(AA29=3,1,0)+IF(AB29=3,1,0)+IF(Z29=3,1,0)+IF(AF29=3,1,0)+IF(AG29=3,1,0)+IF(AE29=3,1,0)+IF(AK29=3,1,0)+IF(AL29=3,1,0)+IF(AJ29=3,1,0)+IF(AP29=3,1,0)+IF(AQ29=3,1,0)+IF(AO29=3,1,0)+IF(AU29=3,1,0)+IF(AV29=3,1,0)+IF(AT29=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" ref="BA29:BA30" si="27">IF(AB29=4,1,0)+IF(Z29=4,1,0)+IF(AA29=4,1,0)+IF(AG29=4,1,0)+IF(AE29=4,1,0)+IF(AF29=4,1,0)+IF(AL29=4,1,0)+IF(AJ29=4,1,0)+IF(AK29=4,1,0)+IF(AQ29=4,1,0)+IF(AO29=4,1,0)+IF(AP29=4,1,0)+IF(AV29=4,1,0)+IF(AT29=4,1,0)+IF(AU29=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="23"/>
@@ -17183,102 +17234,102 @@
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="23"/>
+      <c r="U30">
+        <f>SUM(A30:S30)</f>
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <f>IF(A30=1,1,IF(A30=2,2,IF(A30=3,3,IF(A30=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X30">
-        <f>SUM(A30:S30)</f>
-        <v>4</v>
-      </c>
-      <c r="Z30">
-        <f>IF(A30=1,1,IF(A30=2,2,IF(A30=3,3,IF(A30=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA30">
         <f>IF(B30=1,1,IF(B30=2,2,IF(B30=3,3,IF(B30=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y30">
+        <f>IF(C30=1,1,IF(C30=2,2,IF(C30=3,3,IF(C30=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB30">
-        <f>IF(C30=1,1,IF(C30=2,2,IF(C30=3,3,IF(C30=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE30">
         <f>IF(F30=1,1,IF(F30=2,2,IF(F30=3,3,IF(F30=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AF30">
+      <c r="AC30">
         <f>IF(G30=1,1,IF(G30=2,2,IF(G30=3,3,IF(G30=4,4,0))))</f>
         <v>1</v>
       </c>
+      <c r="AD30">
+        <f>IF(H30=1,1,IF(H30=2,2,IF(H30=3,3,IF(H30=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG30">
-        <f>IF(H30=1,1,IF(H30=2,2,IF(H30=3,3,IF(H30=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ30">
         <f>IF(K30=1,1,IF(K30=2,2,IF(K30=3,3,IF(K30=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AK30">
+      <c r="AH30">
         <f>IF(L30=1,1,IF(L30=2,2,IF(L30=3,3,IF(L30=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AI30">
+        <f>IF(M30=1,1,IF(M30=2,2,IF(M30=3,3,IF(M30=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AL30">
-        <f>IF(M30=1,1,IF(M30=2,2,IF(M30=3,3,IF(M30=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO30">
         <f>IF(P30=1,1,IF(P30=2,2,IF(P30=3,3,IF(P30=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP30">
+      <c r="AM30">
         <f>IF(Q30=1,1,IF(Q30=2,2,IF(Q30=3,3,IF(Q30=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ30">
+      <c r="AN30">
         <f>IF(R30=1,1,IF(R30=2,2,IF(R30=3,3,IF(R30=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU30">
+        <f>IF(W30=1,1,0)+IF(X30=1,1,0)+IF(Y30=1,1,0)+IF(AB30=1,1,0)+IF(AC30=1,1,0)+IF(AD30=1,1,0)+IF(AG30=1,1,0)+IF(AH30=1,1,0)+IF(AI30=1,1,0)+IF(AL30=1,1,0)+IF(AM30=1,1,0)+IF(AN30=1,1,0)+IF(AQ30=1,1,0)+IF(AR30=1,1,0)+IF(AS30=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV30">
+        <f>IF(W30=2,1,0)+IF(X30=2,1,0)+IF(Y30=2,1,0)+IF(AB30=2,1,0)+IF(AC30=2,1,0)+IF(AD30=2,1,0)+IF(AG30=2,1,0)+IF(AH30=2,1,0)+IF(AI30=2,1,0)+IF(AL30=2,1,0)+IF(AM30=2,1,0)+IF(AN30=2,1,0)+IF(AQ30=2,1,0)+IF(AR30=2,1,0)+IF(AS30=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <f>IF(X30=3,1,0)+IF(Y30=3,1,0)+IF(W30=3,1,0)+IF(AC30=3,1,0)+IF(AD30=3,1,0)+IF(AB30=3,1,0)+IF(AH30=3,1,0)+IF(AI30=3,1,0)+IF(AG30=3,1,0)+IF(AM30=3,1,0)+IF(AN30=3,1,0)+IF(AL30=3,1,0)+IF(AR30=3,1,0)+IF(AS30=3,1,0)+IF(AQ30=3,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AX30">
-        <f t="shared" si="24"/>
-        <v>2</v>
+        <f>IF(Y30=4,1,0)+IF(W30=4,1,0)+IF(X30=4,1,0)+IF(AD30=4,1,0)+IF(AB30=4,1,0)+IF(AC30=4,1,0)+IF(AI30=4,1,0)+IF(AG30=4,1,0)+IF(AH30=4,1,0)+IF(AN30=4,1,0)+IF(AL30=4,1,0)+IF(AM30=4,1,0)+IF(AS30=4,1,0)+IF(AQ30=4,1,0)+IF(AR30=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AZ30">
-        <f>IF(AA30=3,1,0)+IF(AB30=3,1,0)+IF(Z30=3,1,0)+IF(AF30=3,1,0)+IF(AG30=3,1,0)+IF(AE30=3,1,0)+IF(AK30=3,1,0)+IF(AL30=3,1,0)+IF(AJ30=3,1,0)+IF(AP30=3,1,0)+IF(AQ30=3,1,0)+IF(AO30=3,1,0)+IF(AU30=3,1,0)+IF(AV30=3,1,0)+IF(AT30=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU31">
+        <f>SUM(AU28:AU30)</f>
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" ref="AV31:AX31" si="20">SUM(AV28:AV30)</f>
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
       <c r="AX31">
-        <f>SUM(AX28:AX30)</f>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="AY31">
-        <f t="shared" ref="AY31:BA31" si="28">SUM(AY28:AY30)</f>
-        <v>3</v>
-      </c>
-      <c r="AZ31">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <f>SUM(AX31:BA31)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+        <f>SUM(AU31:AX31)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -17289,7 +17340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="24"/>
       <c r="C33" s="60">
@@ -17307,174 +17358,176 @@
       <c r="M33" s="13">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="U33">
         <f>SUM(A33:S33)</f>
         <v>11</v>
       </c>
-      <c r="Z33">
+      <c r="W33">
         <f>IF(A33=1,1,IF(A33=2,2,IF(A33=3,3,IF(A33=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="X33">
         <f>IF(B33=1,1,IF(B33=2,2,IF(B33=3,3,IF(B33=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y33">
+        <f>IF(C33=1,1,IF(C33=2,2,IF(C33=3,3,IF(C33=4,4,0))))</f>
+        <v>4</v>
+      </c>
       <c r="AB33">
-        <f>IF(C33=1,1,IF(C33=2,2,IF(C33=3,3,IF(C33=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AE33">
         <f>IF(F33=1,1,IF(F33=2,2,IF(F33=3,3,IF(F33=4,4,0))))</f>
         <v>3</v>
       </c>
-      <c r="AF33">
+      <c r="AC33">
         <f>IF(G33=1,1,IF(G33=2,2,IF(G33=3,3,IF(G33=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD33">
+        <f>IF(H33=1,1,IF(H33=2,2,IF(H33=3,3,IF(H33=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG33">
-        <f>IF(H33=1,1,IF(H33=2,2,IF(H33=3,3,IF(H33=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33">
         <f>IF(K33=1,1,IF(K33=2,2,IF(K33=3,3,IF(K33=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK33">
+      <c r="AH33">
         <f>IF(L33=1,1,IF(L33=2,2,IF(L33=3,3,IF(L33=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AI33">
+        <f>IF(M33=1,1,IF(M33=2,2,IF(M33=3,3,IF(M33=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AL33">
-        <f>IF(M33=1,1,IF(M33=2,2,IF(M33=3,3,IF(M33=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AO33">
         <f>IF(P33=1,1,IF(P33=2,2,IF(P33=3,3,IF(P33=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP33">
+      <c r="AM33">
         <f>IF(Q33=1,1,IF(Q33=2,2,IF(Q33=3,3,IF(Q33=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ33">
+      <c r="AN33">
         <f>IF(R33=1,1,IF(R33=2,2,IF(R33=3,3,IF(R33=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU33">
+        <f>IF(W33=1,1,0)+IF(X33=1,1,0)+IF(Y33=1,1,0)+IF(AB33=1,1,0)+IF(AC33=1,1,0)+IF(AD33=1,1,0)+IF(AG33=1,1,0)+IF(AH33=1,1,0)+IF(AI33=1,1,0)+IF(AL33=1,1,0)+IF(AM33=1,1,0)+IF(AN33=1,1,0)+IF(AQ33=1,1,0)+IF(AR33=1,1,0)+IF(AS33=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <f>IF(W33=2,1,0)+IF(X33=2,1,0)+IF(Y33=2,1,0)+IF(AB33=2,1,0)+IF(AC33=2,1,0)+IF(AD33=2,1,0)+IF(AG33=2,1,0)+IF(AH33=2,1,0)+IF(AI33=2,1,0)+IF(AL33=2,1,0)+IF(AM33=2,1,0)+IF(AN33=2,1,0)+IF(AQ33=2,1,0)+IF(AR33=2,1,0)+IF(AS33=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <f>IF(X33=3,1,0)+IF(Y33=3,1,0)+IF(W33=3,1,0)+IF(AC33=3,1,0)+IF(AD33=3,1,0)+IF(AB33=3,1,0)+IF(AH33=3,1,0)+IF(AI33=3,1,0)+IF(AG33=3,1,0)+IF(AM33=3,1,0)+IF(AN33=3,1,0)+IF(AL33=3,1,0)+IF(AR33=3,1,0)+IF(AS33=3,1,0)+IF(AQ33=3,1,0)</f>
+        <v>2</v>
+      </c>
       <c r="AX33">
-        <f t="shared" ref="AX33:AX35" si="29">IF(Z33=1,1,0)+IF(AA33=1,1,0)+IF(AB33=1,1,0)+IF(AE33=1,1,0)+IF(AF33=1,1,0)+IF(AG33=1,1,0)+IF(AJ33=1,1,0)+IF(AK33=1,1,0)+IF(AL33=1,1,0)+IF(AO33=1,1,0)+IF(AP33=1,1,0)+IF(AQ33=1,1,0)+IF(AT33=1,1,0)+IF(AU33=1,1,0)+IF(AV33=1,1,0)</f>
+        <f>IF(Y33=4,1,0)+IF(W33=4,1,0)+IF(X33=4,1,0)+IF(AD33=4,1,0)+IF(AB33=4,1,0)+IF(AC33=4,1,0)+IF(AI33=4,1,0)+IF(AG33=4,1,0)+IF(AH33=4,1,0)+IF(AN33=4,1,0)+IF(AL33=4,1,0)+IF(AM33=4,1,0)+IF(AS33=4,1,0)+IF(AQ33=4,1,0)+IF(AR33=4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AY33">
-        <f t="shared" ref="AY33:AY35" si="30">IF(Z33=2,1,0)+IF(AA33=2,1,0)+IF(AB33=2,1,0)+IF(AE33=2,1,0)+IF(AF33=2,1,0)+IF(AG33=2,1,0)+IF(AJ33=2,1,0)+IF(AK33=2,1,0)+IF(AL33=2,1,0)+IF(AO33=2,1,0)+IF(AP33=2,1,0)+IF(AQ33=2,1,0)+IF(AT33=2,1,0)+IF(AU33=2,1,0)+IF(AV33=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ33">
-        <f>IF(AA33=3,1,0)+IF(AB33=3,1,0)+IF(Z33=3,1,0)+IF(AF33=3,1,0)+IF(AG33=3,1,0)+IF(AE33=3,1,0)+IF(AK33=3,1,0)+IF(AL33=3,1,0)+IF(AJ33=3,1,0)+IF(AP33=3,1,0)+IF(AQ33=3,1,0)+IF(AO33=3,1,0)+IF(AU33=3,1,0)+IF(AV33=3,1,0)+IF(AT33=3,1,0)</f>
-        <v>2</v>
-      </c>
-      <c r="BA33">
-        <f>IF(AB33=4,1,0)+IF(Z33=4,1,0)+IF(AA33=4,1,0)+IF(AG33=4,1,0)+IF(AE33=4,1,0)+IF(AF33=4,1,0)+IF(AL33=4,1,0)+IF(AJ33=4,1,0)+IF(AK33=4,1,0)+IF(AQ33=4,1,0)+IF(AO33=4,1,0)+IF(AP33=4,1,0)+IF(AV33=4,1,0)+IF(AT33=4,1,0)+IF(AU33=4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB33">
-        <f t="shared" ref="BB33:BB35" si="31">SUM(AX33:BA33)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AY33:AY35" si="21">SUM(AU33:AX33)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="33">
+        <v>2</v>
+      </c>
       <c r="C34" s="46">
         <v>1</v>
       </c>
       <c r="F34" s="12">
         <v>1</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>80</v>
+      <c r="G34" s="59">
+        <v>4</v>
       </c>
       <c r="H34" s="22"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="6" t="s">
-        <v>80</v>
+      <c r="L34" s="13">
+        <v>1</v>
       </c>
       <c r="M34" s="22"/>
       <c r="P34" t="s">
         <v>85</v>
       </c>
+      <c r="U34">
+        <f>SUM(A34:S34)</f>
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <f>IF(A34=1,1,IF(A34=2,2,IF(A34=3,3,IF(A34=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X34">
-        <f>SUM(A34:S34)</f>
-        <v>2</v>
-      </c>
-      <c r="Z34">
-        <f>IF(A34=1,1,IF(A34=2,2,IF(A34=3,3,IF(A34=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA34">
         <f>IF(B34=1,1,IF(B34=2,2,IF(B34=3,3,IF(B34=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <f>IF(C34=1,1,IF(C34=2,2,IF(C34=3,3,IF(C34=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <f>IF(C34=1,1,IF(C34=2,2,IF(C34=3,3,IF(C34=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AE34">
         <f>IF(F34=1,1,IF(F34=2,2,IF(F34=3,3,IF(F34=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AF34">
+      <c r="AC34">
         <f>IF(G34=1,1,IF(G34=2,2,IF(G34=3,3,IF(G34=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <f>IF(H34=1,1,IF(H34=2,2,IF(H34=3,3,IF(H34=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AG34">
-        <f>IF(H34=1,1,IF(H34=2,2,IF(H34=3,3,IF(H34=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ34">
         <f>IF(K34=1,1,IF(K34=2,2,IF(K34=3,3,IF(K34=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK34">
+      <c r="AH34">
         <f>IF(L34=1,1,IF(L34=2,2,IF(L34=3,3,IF(L34=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <f>IF(M34=1,1,IF(M34=2,2,IF(M34=3,3,IF(M34=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AL34">
-        <f>IF(M34=1,1,IF(M34=2,2,IF(M34=3,3,IF(M34=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO34">
         <f>IF(P34=1,1,IF(P34=2,2,IF(P34=3,3,IF(P34=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP34">
+      <c r="AM34">
         <f>IF(Q34=1,1,IF(Q34=2,2,IF(Q34=3,3,IF(Q34=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ34">
+      <c r="AN34">
         <f>IF(R34=1,1,IF(R34=2,2,IF(R34=3,3,IF(R34=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU34">
+        <f>IF(W34=1,1,0)+IF(X34=1,1,0)+IF(Y34=1,1,0)+IF(AB34=1,1,0)+IF(AC34=1,1,0)+IF(AD34=1,1,0)+IF(AG34=1,1,0)+IF(AH34=1,1,0)+IF(AI34=1,1,0)+IF(AL34=1,1,0)+IF(AM34=1,1,0)+IF(AN34=1,1,0)+IF(AQ34=1,1,0)+IF(AR34=1,1,0)+IF(AS34=1,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <f>IF(W34=2,1,0)+IF(X34=2,1,0)+IF(Y34=2,1,0)+IF(AB34=2,1,0)+IF(AC34=2,1,0)+IF(AD34=2,1,0)+IF(AG34=2,1,0)+IF(AH34=2,1,0)+IF(AI34=2,1,0)+IF(AL34=2,1,0)+IF(AM34=2,1,0)+IF(AN34=2,1,0)+IF(AQ34=2,1,0)+IF(AR34=2,1,0)+IF(AS34=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <f>IF(X34=3,1,0)+IF(Y34=3,1,0)+IF(W34=3,1,0)+IF(AC34=3,1,0)+IF(AD34=3,1,0)+IF(AB34=3,1,0)+IF(AH34=3,1,0)+IF(AI34=3,1,0)+IF(AG34=3,1,0)+IF(AM34=3,1,0)+IF(AN34=3,1,0)+IF(AL34=3,1,0)+IF(AR34=3,1,0)+IF(AS34=3,1,0)+IF(AQ34=3,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="AX34">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f>IF(Y34=4,1,0)+IF(W34=4,1,0)+IF(X34=4,1,0)+IF(AD34=4,1,0)+IF(AB34=4,1,0)+IF(AC34=4,1,0)+IF(AI34=4,1,0)+IF(AG34=4,1,0)+IF(AH34=4,1,0)+IF(AN34=4,1,0)+IF(AL34=4,1,0)+IF(AM34=4,1,0)+IF(AS34=4,1,0)+IF(AQ34=4,1,0)+IF(AR34=4,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AY34">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AZ34">
-        <f>IF(AA34=3,1,0)+IF(AB34=3,1,0)+IF(Z34=3,1,0)+IF(AF34=3,1,0)+IF(AG34=3,1,0)+IF(AE34=3,1,0)+IF(AK34=3,1,0)+IF(AL34=3,1,0)+IF(AJ34=3,1,0)+IF(AP34=3,1,0)+IF(AQ34=3,1,0)+IF(AO34=3,1,0)+IF(AU34=3,1,0)+IF(AV34=3,1,0)+IF(AT34=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" ref="BA34:BA35" si="32">IF(AB34=4,1,0)+IF(Z34=4,1,0)+IF(AA34=4,1,0)+IF(AG34=4,1,0)+IF(AE34=4,1,0)+IF(AF34=4,1,0)+IF(AL34=4,1,0)+IF(AJ34=4,1,0)+IF(AK34=4,1,0)+IF(AQ34=4,1,0)+IF(AO34=4,1,0)+IF(AP34=4,1,0)+IF(AV34=4,1,0)+IF(AT34=4,1,0)+IF(AU34=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="35">
@@ -17485,109 +17538,109 @@
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="23"/>
-      <c r="K35" s="70">
-        <v>1</v>
+      <c r="K35" s="76">
+        <v>3</v>
       </c>
       <c r="L35" s="71">
         <v>2</v>
       </c>
       <c r="M35" s="23"/>
+      <c r="U35">
+        <f>SUM(A35:S35)</f>
+        <v>9</v>
+      </c>
+      <c r="W35">
+        <f>IF(A35=1,1,IF(A35=2,2,IF(A35=3,3,IF(A35=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X35">
-        <f>SUM(A35:S35)</f>
-        <v>7</v>
-      </c>
-      <c r="Z35">
-        <f>IF(A35=1,1,IF(A35=2,2,IF(A35=3,3,IF(A35=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA35">
         <f>IF(B35=1,1,IF(B35=2,2,IF(B35=3,3,IF(B35=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y35">
+        <f>IF(C35=1,1,IF(C35=2,2,IF(C35=3,3,IF(C35=4,4,0))))</f>
+        <v>2</v>
+      </c>
       <c r="AB35">
-        <f>IF(C35=1,1,IF(C35=2,2,IF(C35=3,3,IF(C35=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AE35">
         <f>IF(F35=1,1,IF(F35=2,2,IF(F35=3,3,IF(F35=4,4,0))))</f>
         <v>2</v>
       </c>
-      <c r="AF35">
+      <c r="AC35">
         <f>IF(G35=1,1,IF(G35=2,2,IF(G35=3,3,IF(G35=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AD35">
+        <f>IF(H35=1,1,IF(H35=2,2,IF(H35=3,3,IF(H35=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG35">
-        <f>IF(H35=1,1,IF(H35=2,2,IF(H35=3,3,IF(H35=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35">
         <f>IF(K35=1,1,IF(K35=2,2,IF(K35=3,3,IF(K35=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AH35">
         <f>IF(L35=1,1,IF(L35=2,2,IF(L35=3,3,IF(L35=4,4,0))))</f>
         <v>2</v>
       </c>
+      <c r="AI35">
+        <f>IF(M35=1,1,IF(M35=2,2,IF(M35=3,3,IF(M35=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AL35">
-        <f>IF(M35=1,1,IF(M35=2,2,IF(M35=3,3,IF(M35=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO35">
         <f>IF(P35=1,1,IF(P35=2,2,IF(P35=3,3,IF(P35=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP35">
+      <c r="AM35">
         <f>IF(Q35=1,1,IF(Q35=2,2,IF(Q35=3,3,IF(Q35=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ35">
+      <c r="AN35">
         <f>IF(R35=1,1,IF(R35=2,2,IF(R35=3,3,IF(R35=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU35">
+        <f>IF(W35=1,1,0)+IF(X35=1,1,0)+IF(Y35=1,1,0)+IF(AB35=1,1,0)+IF(AC35=1,1,0)+IF(AD35=1,1,0)+IF(AG35=1,1,0)+IF(AH35=1,1,0)+IF(AI35=1,1,0)+IF(AL35=1,1,0)+IF(AM35=1,1,0)+IF(AN35=1,1,0)+IF(AQ35=1,1,0)+IF(AR35=1,1,0)+IF(AS35=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <f>IF(W35=2,1,0)+IF(X35=2,1,0)+IF(Y35=2,1,0)+IF(AB35=2,1,0)+IF(AC35=2,1,0)+IF(AD35=2,1,0)+IF(AG35=2,1,0)+IF(AH35=2,1,0)+IF(AI35=2,1,0)+IF(AL35=2,1,0)+IF(AM35=2,1,0)+IF(AN35=2,1,0)+IF(AQ35=2,1,0)+IF(AR35=2,1,0)+IF(AS35=2,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <f>IF(X35=3,1,0)+IF(Y35=3,1,0)+IF(W35=3,1,0)+IF(AC35=3,1,0)+IF(AD35=3,1,0)+IF(AB35=3,1,0)+IF(AH35=3,1,0)+IF(AI35=3,1,0)+IF(AG35=3,1,0)+IF(AM35=3,1,0)+IF(AN35=3,1,0)+IF(AL35=3,1,0)+IF(AR35=3,1,0)+IF(AS35=3,1,0)+IF(AQ35=3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AX35">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f>IF(Y35=4,1,0)+IF(W35=4,1,0)+IF(X35=4,1,0)+IF(AD35=4,1,0)+IF(AB35=4,1,0)+IF(AC35=4,1,0)+IF(AI35=4,1,0)+IF(AG35=4,1,0)+IF(AH35=4,1,0)+IF(AN35=4,1,0)+IF(AL35=4,1,0)+IF(AM35=4,1,0)+IF(AS35=4,1,0)+IF(AQ35=4,1,0)+IF(AR35=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY35">
-        <f t="shared" si="30"/>
-        <v>3</v>
-      </c>
-      <c r="AZ35">
-        <f>IF(AA35=3,1,0)+IF(AB35=3,1,0)+IF(Z35=3,1,0)+IF(AF35=3,1,0)+IF(AG35=3,1,0)+IF(AE35=3,1,0)+IF(AK35=3,1,0)+IF(AL35=3,1,0)+IF(AJ35=3,1,0)+IF(AP35=3,1,0)+IF(AQ35=3,1,0)+IF(AO35=3,1,0)+IF(AU35=3,1,0)+IF(AV35=3,1,0)+IF(AT35=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BB35">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AU36">
+        <f>SUM(AU33:AU35)</f>
+        <v>4</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" ref="AV36:AX36" si="22">SUM(AV33:AV35)</f>
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
       <c r="AX36">
-        <f>SUM(AX33:AX35)</f>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="AY36">
-        <f t="shared" ref="AY36:BA36" si="33">SUM(AY33:AY35)</f>
-        <v>3</v>
-      </c>
-      <c r="AZ36">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="BB36">
-        <f>SUM(AX36:BA36)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+        <f>SUM(AU36:AX36)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -17598,7 +17651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
@@ -17617,177 +17670,179 @@
         <v>1</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="X38">
+      <c r="U38">
         <f>SUM(A38:S38)</f>
         <v>7</v>
       </c>
-      <c r="Z38">
+      <c r="W38">
         <f>IF(A38=1,1,IF(A38=2,2,IF(A38=3,3,IF(A38=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AA38">
+      <c r="X38">
         <f>IF(B38=1,1,IF(B38=2,2,IF(B38=3,3,IF(B38=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="Y38">
+        <f>IF(C38=1,1,IF(C38=2,2,IF(C38=3,3,IF(C38=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AB38">
-        <f>IF(C38=1,1,IF(C38=2,2,IF(C38=3,3,IF(C38=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AE38">
         <f>IF(F38=1,1,IF(F38=2,2,IF(F38=3,3,IF(F38=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF38">
+      <c r="AC38">
         <f>IF(G38=1,1,IF(G38=2,2,IF(G38=3,3,IF(G38=4,4,0))))</f>
         <v>2</v>
       </c>
+      <c r="AD38">
+        <f>IF(H38=1,1,IF(H38=2,2,IF(H38=3,3,IF(H38=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="AG38">
-        <f>IF(H38=1,1,IF(H38=2,2,IF(H38=3,3,IF(H38=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ38">
         <f>IF(K38=1,1,IF(K38=2,2,IF(K38=3,3,IF(K38=4,4,0))))</f>
         <v>1</v>
       </c>
-      <c r="AK38">
+      <c r="AH38">
         <f>IF(L38=1,1,IF(L38=2,2,IF(L38=3,3,IF(L38=4,4,0))))</f>
         <v>3</v>
       </c>
+      <c r="AI38">
+        <f>IF(M38=1,1,IF(M38=2,2,IF(M38=3,3,IF(M38=4,4,0))))</f>
+        <v>1</v>
+      </c>
       <c r="AL38">
-        <f>IF(M38=1,1,IF(M38=2,2,IF(M38=3,3,IF(M38=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AO38">
         <f>IF(P39=1,1,IF(P39=2,2,IF(P39=3,3,IF(P39=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AP38">
+      <c r="AM38">
         <f>IF(Q38=1,1,IF(Q38=2,2,IF(Q38=3,3,IF(Q38=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ38">
+      <c r="AN38">
         <f>IF(R38=1,1,IF(R38=2,2,IF(R38=3,3,IF(R38=4,4,0))))</f>
         <v>0</v>
       </c>
+      <c r="AU38">
+        <f>IF(W38=1,1,0)+IF(X38=1,1,0)+IF(Y38=1,1,0)+IF(AB38=1,1,0)+IF(AC38=1,1,0)+IF(AD38=1,1,0)+IF(AG38=1,1,0)+IF(AH38=1,1,0)+IF(AI38=1,1,0)+IF(AL38=1,1,0)+IF(AM38=1,1,0)+IF(AN38=1,1,0)+IF(AQ38=1,1,0)+IF(AR38=1,1,0)+IF(AS38=1,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <f>IF(W38=2,1,0)+IF(X38=2,1,0)+IF(Y38=2,1,0)+IF(AB38=2,1,0)+IF(AC38=2,1,0)+IF(AD38=2,1,0)+IF(AG38=2,1,0)+IF(AH38=2,1,0)+IF(AI38=2,1,0)+IF(AL38=2,1,0)+IF(AM38=2,1,0)+IF(AN38=2,1,0)+IF(AQ38=2,1,0)+IF(AR38=2,1,0)+IF(AS38=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <f>IF(X38=3,1,0)+IF(Y38=3,1,0)+IF(W38=3,1,0)+IF(AC38=3,1,0)+IF(AD38=3,1,0)+IF(AB38=3,1,0)+IF(AH38=3,1,0)+IF(AI38=3,1,0)+IF(AG38=3,1,0)+IF(AM38=3,1,0)+IF(AN38=3,1,0)+IF(AL38=3,1,0)+IF(AR38=3,1,0)+IF(AS38=3,1,0)+IF(AQ38=3,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="AX38">
-        <f t="shared" ref="AX38:AX40" si="34">IF(Z38=1,1,0)+IF(AA38=1,1,0)+IF(AB38=1,1,0)+IF(AE38=1,1,0)+IF(AF38=1,1,0)+IF(AG38=1,1,0)+IF(AJ38=1,1,0)+IF(AK38=1,1,0)+IF(AL38=1,1,0)+IF(AO38=1,1,0)+IF(AP38=1,1,0)+IF(AQ38=1,1,0)+IF(AT38=1,1,0)+IF(AU38=1,1,0)+IF(AV38=1,1,0)</f>
-        <v>2</v>
+        <f>IF(Y38=4,1,0)+IF(W38=4,1,0)+IF(X38=4,1,0)+IF(AD38=4,1,0)+IF(AB38=4,1,0)+IF(AC38=4,1,0)+IF(AI38=4,1,0)+IF(AG38=4,1,0)+IF(AH38=4,1,0)+IF(AN38=4,1,0)+IF(AL38=4,1,0)+IF(AM38=4,1,0)+IF(AS38=4,1,0)+IF(AQ38=4,1,0)+IF(AR38=4,1,0)</f>
+        <v>0</v>
       </c>
       <c r="AY38">
-        <f t="shared" ref="AY38:AY40" si="35">IF(Z38=2,1,0)+IF(AA38=2,1,0)+IF(AB38=2,1,0)+IF(AE38=2,1,0)+IF(AF38=2,1,0)+IF(AG38=2,1,0)+IF(AJ38=2,1,0)+IF(AK38=2,1,0)+IF(AL38=2,1,0)+IF(AO38=2,1,0)+IF(AP38=2,1,0)+IF(AQ38=2,1,0)+IF(AT38=2,1,0)+IF(AU38=2,1,0)+IF(AV38=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ38">
-        <f>IF(AA38=3,1,0)+IF(AB38=3,1,0)+IF(Z38=3,1,0)+IF(AF38=3,1,0)+IF(AG38=3,1,0)+IF(AE38=3,1,0)+IF(AK38=3,1,0)+IF(AL38=3,1,0)+IF(AJ38=3,1,0)+IF(AP38=3,1,0)+IF(AQ38=3,1,0)+IF(AO38=3,1,0)+IF(AU38=3,1,0)+IF(AV38=3,1,0)+IF(AT38=3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA38">
-        <f>IF(AB38=4,1,0)+IF(Z38=4,1,0)+IF(AA38=4,1,0)+IF(AG38=4,1,0)+IF(AE38=4,1,0)+IF(AF38=4,1,0)+IF(AL38=4,1,0)+IF(AJ38=4,1,0)+IF(AK38=4,1,0)+IF(AQ38=4,1,0)+IF(AO38=4,1,0)+IF(AP38=4,1,0)+IF(AV38=4,1,0)+IF(AT38=4,1,0)+IF(AU38=4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <f t="shared" ref="BB38:BB40" si="36">SUM(AX38:BA38)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AY38:AY40" si="23">SUM(AU38:AX38)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="32"/>
+      <c r="B39" s="33">
+        <v>2</v>
+      </c>
       <c r="C39" s="12">
         <v>1</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="6" t="s">
-        <v>80</v>
+      <c r="G39" s="59">
+        <v>4</v>
       </c>
       <c r="H39" s="38">
         <v>3</v>
       </c>
       <c r="K39" s="19"/>
-      <c r="L39" s="6" t="s">
-        <v>80</v>
+      <c r="L39" s="59">
+        <v>4</v>
       </c>
       <c r="M39" s="22"/>
       <c r="P39" t="s">
         <v>83</v>
       </c>
+      <c r="U39">
+        <f>SUM(A39:S39)</f>
+        <v>14</v>
+      </c>
+      <c r="W39">
+        <f>IF(A39=1,1,IF(A39=2,2,IF(A39=3,3,IF(A39=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X39">
-        <f>SUM(A39:S39)</f>
-        <v>4</v>
-      </c>
-      <c r="Z39">
-        <f>IF(A39=1,1,IF(A39=2,2,IF(A39=3,3,IF(A39=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA39">
         <f>IF(B39=1,1,IF(B39=2,2,IF(B39=3,3,IF(B39=4,4,0))))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <f>IF(C39=1,1,IF(C39=2,2,IF(C39=3,3,IF(C39=4,4,0))))</f>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <f>IF(C39=1,1,IF(C39=2,2,IF(C39=3,3,IF(C39=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AE39">
         <f>IF(F39=1,1,IF(F39=2,2,IF(F39=3,3,IF(F39=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AF39">
+      <c r="AC39">
         <f>IF(G39=1,1,IF(G39=2,2,IF(G39=3,3,IF(G39=4,4,0))))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <f>IF(H39=1,1,IF(H39=2,2,IF(H39=3,3,IF(H39=4,4,0))))</f>
+        <v>3</v>
       </c>
       <c r="AG39">
-        <f>IF(H39=1,1,IF(H39=2,2,IF(H39=3,3,IF(H39=4,4,0))))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ39">
         <f>IF(K39=1,1,IF(K39=2,2,IF(K39=3,3,IF(K39=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AK39">
+      <c r="AH39">
         <f>IF(L39=1,1,IF(L39=2,2,IF(L39=3,3,IF(L39=4,4,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="AI39">
+        <f>IF(M39=1,1,IF(M39=2,2,IF(M39=3,3,IF(M39=4,4,0))))</f>
         <v>0</v>
       </c>
       <c r="AL39">
-        <f>IF(M39=1,1,IF(M39=2,2,IF(M39=3,3,IF(M39=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO39" t="e">
-        <f>IF(#REF!=1,1,IF(#REF!=2,2,IF(#REF!=3,3,IF(#REF!=4,4,0))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP39">
+        <f>IF(P40=1,1,IF(P40=2,2,IF(P40=3,3,IF(P40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AM39">
         <f>IF(Q39=1,1,IF(Q39=2,2,IF(Q39=3,3,IF(Q39=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AQ39">
+      <c r="AN39">
         <f>IF(R39=1,1,IF(R39=2,2,IF(R39=3,3,IF(R39=4,4,0))))</f>
         <v>0</v>
       </c>
-      <c r="AX39" t="e">
-        <f t="shared" si="34"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AY39" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ39" t="e">
-        <f>IF(AA39=3,1,0)+IF(AB39=3,1,0)+IF(Z39=3,1,0)+IF(AF39=3,1,0)+IF(AG39=3,1,0)+IF(AE39=3,1,0)+IF(AK39=3,1,0)+IF(AL39=3,1,0)+IF(AJ39=3,1,0)+IF(AP39=3,1,0)+IF(AQ39=3,1,0)+IF(AO39=3,1,0)+IF(AU39=3,1,0)+IF(AV39=3,1,0)+IF(AT39=3,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA39" t="e">
-        <f t="shared" ref="BA39:BA40" si="37">IF(AB39=4,1,0)+IF(Z39=4,1,0)+IF(AA39=4,1,0)+IF(AG39=4,1,0)+IF(AE39=4,1,0)+IF(AF39=4,1,0)+IF(AL39=4,1,0)+IF(AJ39=4,1,0)+IF(AK39=4,1,0)+IF(AQ39=4,1,0)+IF(AO39=4,1,0)+IF(AP39=4,1,0)+IF(AV39=4,1,0)+IF(AT39=4,1,0)+IF(AU39=4,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BB39" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AU39">
+        <f>IF(W39=1,1,0)+IF(X39=1,1,0)+IF(Y39=1,1,0)+IF(AB39=1,1,0)+IF(AC39=1,1,0)+IF(AD39=1,1,0)+IF(AG39=1,1,0)+IF(AH39=1,1,0)+IF(AI39=1,1,0)+IF(AL39=1,1,0)+IF(AM39=1,1,0)+IF(AN39=1,1,0)+IF(AQ39=1,1,0)+IF(AR39=1,1,0)+IF(AS39=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV39">
+        <f>IF(W39=2,1,0)+IF(X39=2,1,0)+IF(Y39=2,1,0)+IF(AB39=2,1,0)+IF(AC39=2,1,0)+IF(AD39=2,1,0)+IF(AG39=2,1,0)+IF(AH39=2,1,0)+IF(AI39=2,1,0)+IF(AL39=2,1,0)+IF(AM39=2,1,0)+IF(AN39=2,1,0)+IF(AQ39=2,1,0)+IF(AR39=2,1,0)+IF(AS39=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <f>IF(X39=3,1,0)+IF(Y39=3,1,0)+IF(W39=3,1,0)+IF(AC39=3,1,0)+IF(AD39=3,1,0)+IF(AB39=3,1,0)+IF(AH39=3,1,0)+IF(AI39=3,1,0)+IF(AG39=3,1,0)+IF(AM39=3,1,0)+IF(AN39=3,1,0)+IF(AL39=3,1,0)+IF(AR39=3,1,0)+IF(AS39=3,1,0)+IF(AQ39=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <f>IF(Y39=4,1,0)+IF(W39=4,1,0)+IF(X39=4,1,0)+IF(AD39=4,1,0)+IF(AB39=4,1,0)+IF(AC39=4,1,0)+IF(AI39=4,1,0)+IF(AG39=4,1,0)+IF(AH39=4,1,0)+IF(AN39=4,1,0)+IF(AL39=4,1,0)+IF(AM39=4,1,0)+IF(AS39=4,1,0)+IF(AQ39=4,1,0)+IF(AR39=4,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
-      <c r="B40" s="43">
-        <v>4</v>
+      <c r="B40" s="38">
+        <v>3</v>
       </c>
       <c r="C40" s="66">
         <v>2</v>
@@ -17802,138 +17857,138 @@
         <v>2</v>
       </c>
       <c r="M40" s="23"/>
+      <c r="U40">
+        <f>SUM(A40:S40)</f>
+        <v>8</v>
+      </c>
+      <c r="W40">
+        <f>IF(A40=1,1,IF(A40=2,2,IF(A40=3,3,IF(A40=4,4,0))))</f>
+        <v>0</v>
+      </c>
       <c r="X40">
-        <f>SUM(A40:S40)</f>
+        <f>IF(B40=1,1,IF(B40=2,2,IF(B40=3,3,IF(B40=4,4,0))))</f>
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <f>IF(C40=1,1,IF(C40=2,2,IF(C40=3,3,IF(C40=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <f>IF(F40=1,1,IF(F40=2,2,IF(F40=3,3,IF(F40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f>IF(G40=1,1,IF(G40=2,2,IF(G40=3,3,IF(G40=4,4,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <f>IF(H40=1,1,IF(H40=2,2,IF(H40=3,3,IF(H40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <f>IF(K40=1,1,IF(K40=2,2,IF(K40=3,3,IF(K40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f>IF(L40=1,1,IF(L40=2,2,IF(L40=3,3,IF(L40=4,4,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <f>IF(M40=1,1,IF(M40=2,2,IF(M40=3,3,IF(M40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <f>IF(P41=1,1,IF(P41=2,2,IF(P41=3,3,IF(P41=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <f>IF(Q40=1,1,IF(Q40=2,2,IF(Q40=3,3,IF(Q40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <f>IF(R40=1,1,IF(R40=2,2,IF(R40=3,3,IF(R40=4,4,0))))</f>
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <f>IF(W40=1,1,0)+IF(X40=1,1,0)+IF(Y40=1,1,0)+IF(AB40=1,1,0)+IF(AC40=1,1,0)+IF(AD40=1,1,0)+IF(AG40=1,1,0)+IF(AH40=1,1,0)+IF(AI40=1,1,0)+IF(AL40=1,1,0)+IF(AM40=1,1,0)+IF(AN40=1,1,0)+IF(AQ40=1,1,0)+IF(AR40=1,1,0)+IF(AS40=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV40">
+        <f>IF(W40=2,1,0)+IF(X40=2,1,0)+IF(Y40=2,1,0)+IF(AB40=2,1,0)+IF(AC40=2,1,0)+IF(AD40=2,1,0)+IF(AG40=2,1,0)+IF(AH40=2,1,0)+IF(AI40=2,1,0)+IF(AL40=2,1,0)+IF(AM40=2,1,0)+IF(AN40=2,1,0)+IF(AQ40=2,1,0)+IF(AR40=2,1,0)+IF(AS40=2,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <f>IF(X40=3,1,0)+IF(Y40=3,1,0)+IF(W40=3,1,0)+IF(AC40=3,1,0)+IF(AD40=3,1,0)+IF(AB40=3,1,0)+IF(AH40=3,1,0)+IF(AI40=3,1,0)+IF(AG40=3,1,0)+IF(AM40=3,1,0)+IF(AN40=3,1,0)+IF(AL40=3,1,0)+IF(AR40=3,1,0)+IF(AS40=3,1,0)+IF(AQ40=3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <f>IF(Y40=4,1,0)+IF(W40=4,1,0)+IF(X40=4,1,0)+IF(AD40=4,1,0)+IF(AB40=4,1,0)+IF(AC40=4,1,0)+IF(AI40=4,1,0)+IF(AG40=4,1,0)+IF(AH40=4,1,0)+IF(AN40=4,1,0)+IF(AL40=4,1,0)+IF(AM40=4,1,0)+IF(AS40=4,1,0)+IF(AQ40=4,1,0)+IF(AR40=4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <f>SUM(W23:W40)</f>
         <v>9</v>
       </c>
-      <c r="Z40">
-        <f>IF(A40=1,1,IF(A40=2,2,IF(A40=3,3,IF(A40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <f>IF(B40=1,1,IF(B40=2,2,IF(B40=3,3,IF(B40=4,4,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="AB40">
-        <f>IF(C40=1,1,IF(C40=2,2,IF(C40=3,3,IF(C40=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AE40">
-        <f>IF(F40=1,1,IF(F40=2,2,IF(F40=3,3,IF(F40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <f>IF(G40=1,1,IF(G40=2,2,IF(G40=3,3,IF(G40=4,4,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <f>IF(H40=1,1,IF(H40=2,2,IF(H40=3,3,IF(H40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <f>IF(K40=1,1,IF(K40=2,2,IF(K40=3,3,IF(K40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <f>IF(L40=1,1,IF(L40=2,2,IF(L40=3,3,IF(L40=4,4,0))))</f>
-        <v>2</v>
-      </c>
-      <c r="AL40">
-        <f>IF(M40=1,1,IF(M40=2,2,IF(M40=3,3,IF(M40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <f>IF(P40=1,1,IF(P40=2,2,IF(P40=3,3,IF(P40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <f>IF(Q40=1,1,IF(Q40=2,2,IF(Q40=3,3,IF(Q40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <f>IF(R40=1,1,IF(R40=2,2,IF(R40=3,3,IF(R40=4,4,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="AZ40">
-        <f>IF(AA40=3,1,0)+IF(AB40=3,1,0)+IF(Z40=3,1,0)+IF(AF40=3,1,0)+IF(AG40=3,1,0)+IF(AE40=3,1,0)+IF(AK40=3,1,0)+IF(AL40=3,1,0)+IF(AJ40=3,1,0)+IF(AP40=3,1,0)+IF(AQ40=3,1,0)+IF(AO40=3,1,0)+IF(AU40=3,1,0)+IF(AV40=3,1,0)+IF(AT40=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="BB40">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="Z41">
-        <f>SUM(Z23:Z40)</f>
-        <v>9</v>
-      </c>
-      <c r="AA41">
-        <f>SUM(AA23:AA40)</f>
-        <v>7</v>
+      <c r="X41">
+        <f>SUM(X23:X40)</f>
+        <v>14</v>
+      </c>
+      <c r="Y41">
+        <f>SUM(Y23:Y40)</f>
+        <v>10</v>
       </c>
       <c r="AB41">
         <f>SUM(AB23:AB40)</f>
-        <v>10</v>
-      </c>
-      <c r="AE41">
-        <f>SUM(AE23:AE40)</f>
         <v>8</v>
       </c>
-      <c r="AF41">
-        <f>SUM(AF23:AF40)</f>
-        <v>12</v>
+      <c r="AC41">
+        <f>SUM(AC23:AC40)</f>
+        <v>27</v>
+      </c>
+      <c r="AD41">
+        <f>SUM(AD23:AD40)</f>
+        <v>5</v>
       </c>
       <c r="AG41">
         <f>SUM(AG23:AG40)</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41">
-        <f>SUM(AJ23:AJ40)</f>
-        <v>6</v>
-      </c>
-      <c r="AK41">
-        <f>SUM(AK23:AK40)</f>
-        <v>14</v>
-      </c>
-      <c r="AL41">
-        <f>SUM(AL23:AL40)</f>
-        <v>5</v>
-      </c>
-      <c r="AX41" t="e">
-        <f>SUM(AX38:AX40)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY41" t="e">
-        <f t="shared" ref="AY41:BA41" si="38">SUM(AY38:AY40)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AZ41" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BA41" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="BB41" t="e">
-        <f>SUM(AX41:BA41)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="AH41">
+        <f>SUM(AH23:AH40)</f>
+        <v>23</v>
+      </c>
+      <c r="AI41">
+        <f>SUM(AI23:AI40)</f>
+        <v>11</v>
+      </c>
+      <c r="AU41">
+        <f>SUM(AU38:AU40)</f>
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" ref="AV41:AX41" si="24">SUM(AV38:AV40)</f>
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <f>SUM(AU41:AX41)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -17958,13 +18013,13 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -18054,4 +18109,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>